--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_0_branch_ward34_impedance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_0_branch_ward34_impedance.xlsx
@@ -994,40 +994,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.605323420844211E-14</v>
+        <v>-2.60532342084421E-14</v>
       </c>
       <c r="O2">
-        <v>1.302657324430829E-14</v>
+        <v>2.344786692404027E-14</v>
       </c>
       <c r="P2">
-        <v>5.210602310044589E-15</v>
+        <v>-4.453220119842416E-20</v>
       </c>
       <c r="Q2">
-        <v>1.563194052506538E-14</v>
+        <v>1.563194052506531E-14</v>
       </c>
       <c r="R2">
-        <v>-1.04208215775057E-14</v>
+        <v>-2.084211525773401E-14</v>
       </c>
       <c r="S2">
-        <v>-1.042082090133837E-14</v>
+        <v>4.727798899087527E-19</v>
       </c>
       <c r="T2">
-        <v>2.084258736675318E-14</v>
+        <v>2.084258736675319E-14</v>
       </c>
       <c r="U2">
-        <v>5.763394861896599E-09</v>
+        <v>5.763379229956085E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763402682029843E-09</v>
+        <v>-5.763381839442465E-09</v>
       </c>
       <c r="W2">
-        <v>-2.08425873667533E-14</v>
+        <v>-1.563194052506493E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763400072057539E-09</v>
+        <v>-5.763381834793607E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763402682515742E-09</v>
+        <v>5.763376629281515E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG2">
-        <v>0.550000011705746</v>
+        <v>0.5500000117057465</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030185</v>
+        <v>0.5500000121030181</v>
       </c>
       <c r="AI2">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593766</v>
+        <v>0.5500000116593771</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493877</v>
+        <v>0.550000012149387</v>
       </c>
       <c r="AL2">
-        <v>6.835683379550131E-13</v>
+        <v>6.611530952576334E-13</v>
       </c>
       <c r="AM2">
         <v>-179.9999999995567</v>
@@ -1075,7 +1075,7 @@
         <v>179.99999999955</v>
       </c>
       <c r="AO2">
-        <v>7.06355645745588E-13</v>
+        <v>6.76699317774843E-13</v>
       </c>
       <c r="AP2">
         <v>-179.9999999952994</v>
@@ -1125,40 +1125,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.563194052506458E-14</v>
+        <v>1.24640581913235E-28</v>
       </c>
       <c r="O3">
-        <v>1.302682204731261E-14</v>
+        <v>2.605528370926497E-15</v>
       </c>
       <c r="P3">
-        <v>1.563214570858114E-14</v>
+        <v>2.051790644571189E-19</v>
       </c>
       <c r="Q3">
-        <v>5.210646841687731E-15</v>
+        <v>-1.042129368337681E-14</v>
       </c>
       <c r="R3">
-        <v>-1.573656534921777E-19</v>
+        <v>-1.573680010196953E-19</v>
       </c>
       <c r="S3">
-        <v>-3.126403865961736E-14</v>
+        <v>-1.575952913492347E-19</v>
       </c>
       <c r="T3">
-        <v>-4.168517473350715E-14</v>
+        <v>-1.042129368337674E-14</v>
       </c>
       <c r="U3">
-        <v>-1.921131620416245E-09</v>
+        <v>-1.921147252356764E-09</v>
       </c>
       <c r="V3">
-        <v>1.92111338497186E-09</v>
+        <v>1.921144648852923E-09</v>
       </c>
       <c r="W3">
-        <v>5.21064684168838E-14</v>
+        <v>5.21064684168825E-15</v>
       </c>
       <c r="X3">
-        <v>1.921115988529715E-09</v>
+        <v>1.921144647087333E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921134227505244E-09</v>
+        <v>-1.921149859445777E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1179,25 +1179,25 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023808765</v>
+        <v>1.100000023808766</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439208</v>
+        <v>0.5500000116439209</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648446</v>
+        <v>0.5500000121648436</v>
       </c>
       <c r="AI3">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593766</v>
+        <v>0.5500000116593771</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493877</v>
+        <v>0.550000012149387</v>
       </c>
       <c r="AL3">
-        <v>7.194758010685721E-13</v>
+        <v>6.852680210974273E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999938803</v>
@@ -1206,7 +1206,7 @@
         <v>179.9999999938735</v>
       </c>
       <c r="AO3">
-        <v>7.06355645745588E-13</v>
+        <v>6.76699317774843E-13</v>
       </c>
       <c r="AP3">
         <v>-179.9999999952994</v>
@@ -1256,40 +1256,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-5.210646841687913E-15</v>
+        <v>1.24640581913235E-28</v>
       </c>
       <c r="O4">
-        <v>2.605528368871056E-15</v>
+        <v>2.605528370926497E-15</v>
       </c>
       <c r="P4">
-        <v>3.647473308631799E-14</v>
+        <v>2.051790644571189E-19</v>
       </c>
       <c r="Q4">
-        <v>-5.210646841688824E-15</v>
+        <v>-1.042129368337681E-14</v>
       </c>
       <c r="R4">
-        <v>1.042113631137363E-14</v>
+        <v>-1.573680010196953E-19</v>
       </c>
       <c r="S4">
-        <v>-4.168533234763641E-14</v>
+        <v>-1.575952913492347E-19</v>
       </c>
       <c r="T4">
-        <v>-3.647452789181866E-14</v>
+        <v>-1.042129368337674E-14</v>
       </c>
       <c r="U4">
-        <v>-1.921131620416245E-09</v>
+        <v>-1.921147252356764E-09</v>
       </c>
       <c r="V4">
-        <v>1.921123806265546E-09</v>
+        <v>1.921144648852923E-09</v>
       </c>
       <c r="W4">
-        <v>3.647452789181855E-14</v>
+        <v>5.21064684168825E-15</v>
       </c>
       <c r="X4">
-        <v>1.921136831117073E-09</v>
+        <v>1.921144647087333E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921134227505244E-09</v>
+        <v>-1.921149859445777E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1310,25 +1310,25 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023808765</v>
+        <v>1.100000023808766</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439206</v>
+        <v>0.5500000116439209</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648447</v>
+        <v>0.5500000121648436</v>
       </c>
       <c r="AI4">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593766</v>
+        <v>0.5500000116593771</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493877</v>
+        <v>0.550000012149387</v>
       </c>
       <c r="AL4">
-        <v>7.194740614528267E-13</v>
+        <v>6.852680210974273E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999938803</v>
@@ -1337,7 +1337,7 @@
         <v>179.9999999938735</v>
       </c>
       <c r="AO4">
-        <v>7.06355645745588E-13</v>
+        <v>6.76699317774843E-13</v>
       </c>
       <c r="AP4">
         <v>-179.9999999952994</v>
@@ -1531,40 +1531,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.605323420851912E-14</v>
+        <v>-2.084258736681534E-14</v>
       </c>
       <c r="O2">
-        <v>-7.307806493710491E-10</v>
+        <v>-7.307608564704328E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039307866162078E-09</v>
+        <v>-2.039300316091285E-09</v>
       </c>
       <c r="Q2">
-        <v>1.563194052511158E-14</v>
+        <v>1.04212936834078E-14</v>
       </c>
       <c r="R2">
-        <v>7.307922790327673E-10</v>
+        <v>7.307781266913929E-10</v>
       </c>
       <c r="S2">
-        <v>2.039307866451099E-09</v>
+        <v>2.039291944155195E-09</v>
       </c>
       <c r="T2">
-        <v>2.605323420851863E-14</v>
+        <v>2.605323420851869E-14</v>
       </c>
       <c r="U2">
-        <v>5.822514425773938E-09</v>
+        <v>5.822503042768911E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556072532027604E-09</v>
+        <v>-3.556065841781612E-09</v>
       </c>
       <c r="W2">
-        <v>-2.605323420851873E-14</v>
+        <v>-2.605323420851878E-14</v>
       </c>
       <c r="X2">
-        <v>-5.822507943897208E-09</v>
+        <v>-5.822505072674318E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556072532355529E-09</v>
+        <v>3.556069206067773E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>1.100000023812018</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635713</v>
+        <v>0.6816683458635716</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780341</v>
+        <v>0.4761907155780337</v>
       </c>
       <c r="AI2">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458299558</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277809</v>
+        <v>0.4761907156277803</v>
       </c>
       <c r="AL2">
-        <v>5.369997152294586E-13</v>
+        <v>5.260316660641753E-13</v>
       </c>
       <c r="AM2">
         <v>-164.9034422584273</v>
@@ -1612,13 +1612,13 @@
         <v>158.1097491654785</v>
       </c>
       <c r="AO2">
-        <v>5.545441815281501E-13</v>
+        <v>5.42135581897126E-13</v>
       </c>
       <c r="AP2">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552286</v>
       </c>
       <c r="AQ2">
-        <v>158.1097491642543</v>
+        <v>158.1097491642544</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1662,40 +1662,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-2.084258736681484E-14</v>
+        <v>5.210646841703875E-15</v>
       </c>
       <c r="O3">
-        <v>2.436098485782495E-10</v>
+        <v>2.436080647125908E-10</v>
       </c>
       <c r="P3">
-        <v>6.797732009102621E-10</v>
+        <v>6.797857592479231E-10</v>
       </c>
       <c r="Q3">
-        <v>1.563194052511107E-14</v>
+        <v>-1.563194052511142E-14</v>
       </c>
       <c r="R3">
-        <v>-2.435982191734383E-10</v>
+        <v>-2.436032651107947E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797765648363851E-10</v>
+        <v>-6.79785759215809E-10</v>
       </c>
       <c r="T3">
-        <v>-2.605323420851907E-14</v>
+        <v>-1.04212936834075E-14</v>
       </c>
       <c r="U3">
-        <v>-1.940815908032162E-09</v>
+        <v>-1.940846489315921E-09</v>
       </c>
       <c r="V3">
-        <v>1.185359180243904E-09</v>
+        <v>1.185354134306547E-09</v>
       </c>
       <c r="W3">
-        <v>2.605323420851903E-14</v>
+        <v>1.04212936834074E-14</v>
       </c>
       <c r="X3">
-        <v>1.940822389617398E-09</v>
+        <v>1.940841095160787E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185367552432575E-09</v>
+        <v>-1.18535413427011E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1716,40 +1716,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AG3">
-        <v>0.681668345818751</v>
+        <v>0.6816683458187509</v>
       </c>
       <c r="AH3">
-        <v>0.4761907156443635</v>
+        <v>0.4761907156443627</v>
       </c>
       <c r="AI3">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458299558</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277809</v>
+        <v>0.4761907156277803</v>
       </c>
       <c r="AL3">
-        <v>5.665163787924766E-13</v>
+        <v>5.506075083748563E-13</v>
       </c>
       <c r="AM3">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541624</v>
       </c>
       <c r="AN3">
         <v>158.1097491638463</v>
       </c>
       <c r="AO3">
-        <v>5.545441815281501E-13</v>
+        <v>5.42135581897126E-13</v>
       </c>
       <c r="AP3">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552286</v>
       </c>
       <c r="AQ3">
-        <v>158.1097491642543</v>
+        <v>158.1097491642544</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1793,40 +1793,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.122143863946192E-28</v>
+        <v>5.210646841703875E-15</v>
       </c>
       <c r="O4">
-        <v>2.435973782159913E-10</v>
+        <v>2.436080647125908E-10</v>
       </c>
       <c r="P4">
-        <v>6.797765648684993E-10</v>
+        <v>6.797857592479231E-10</v>
       </c>
       <c r="Q4">
-        <v>-5.210646841704078E-15</v>
+        <v>-1.563194052511142E-14</v>
       </c>
       <c r="R4">
-        <v>-2.435982191734383E-10</v>
+        <v>-2.436032651107947E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797849370614934E-10</v>
+        <v>-6.79785759215809E-10</v>
       </c>
       <c r="T4">
-        <v>-3.126388105022264E-14</v>
+        <v>-1.04212936834075E-14</v>
       </c>
       <c r="U4">
-        <v>-1.940819271990399E-09</v>
+        <v>-1.940846489315921E-09</v>
       </c>
       <c r="V4">
-        <v>1.185367552469013E-09</v>
+        <v>1.185354134306547E-09</v>
       </c>
       <c r="W4">
-        <v>3.12638810502226E-14</v>
+        <v>1.04212936834074E-14</v>
       </c>
       <c r="X4">
-        <v>1.940822389617398E-09</v>
+        <v>1.940841095160787E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.185364188474338E-09</v>
+        <v>-1.18535413427011E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1847,40 +1847,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AG4">
         <v>0.6816683458187509</v>
       </c>
       <c r="AH4">
-        <v>0.4761907156443637</v>
+        <v>0.4761907156443627</v>
       </c>
       <c r="AI4">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458299558</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277809</v>
+        <v>0.4761907156277803</v>
       </c>
       <c r="AL4">
-        <v>5.721799739111493E-13</v>
+        <v>5.506075083748563E-13</v>
       </c>
       <c r="AM4">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541624</v>
       </c>
       <c r="AN4">
         <v>158.1097491638463</v>
       </c>
       <c r="AO4">
-        <v>5.545441815281501E-13</v>
+        <v>5.42135581897126E-13</v>
       </c>
       <c r="AP4">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552286</v>
       </c>
       <c r="AQ4">
-        <v>158.1097491642543</v>
+        <v>158.1097491642544</v>
       </c>
     </row>
   </sheetData>
@@ -2068,40 +2068,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.605323420851912E-14</v>
+        <v>-2.084258736681534E-14</v>
       </c>
       <c r="O2">
-        <v>-7.307806493710491E-10</v>
+        <v>-7.307608564704328E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039307866162078E-09</v>
+        <v>-2.039300316091285E-09</v>
       </c>
       <c r="Q2">
-        <v>1.563194052511158E-14</v>
+        <v>1.04212936834078E-14</v>
       </c>
       <c r="R2">
-        <v>7.307922790327673E-10</v>
+        <v>7.307781266913929E-10</v>
       </c>
       <c r="S2">
-        <v>2.039307866451099E-09</v>
+        <v>2.039291944155195E-09</v>
       </c>
       <c r="T2">
-        <v>2.605323420851863E-14</v>
+        <v>2.605323420851869E-14</v>
       </c>
       <c r="U2">
-        <v>5.822514425773938E-09</v>
+        <v>5.822503042768911E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556072532027604E-09</v>
+        <v>-3.556065841781612E-09</v>
       </c>
       <c r="W2">
-        <v>-2.605323420851873E-14</v>
+        <v>-2.605323420851878E-14</v>
       </c>
       <c r="X2">
-        <v>-5.822507943897208E-09</v>
+        <v>-5.822505072674318E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556072532355529E-09</v>
+        <v>3.556069206067773E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2125,22 +2125,22 @@
         <v>1.100000023812018</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635713</v>
+        <v>0.6816683458635716</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780341</v>
+        <v>0.4761907155780337</v>
       </c>
       <c r="AI2">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458299558</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277809</v>
+        <v>0.4761907156277803</v>
       </c>
       <c r="AL2">
-        <v>5.369997152294586E-13</v>
+        <v>5.260316660641753E-13</v>
       </c>
       <c r="AM2">
         <v>-164.9034422584273</v>
@@ -2149,13 +2149,13 @@
         <v>158.1097491654785</v>
       </c>
       <c r="AO2">
-        <v>5.545441815281501E-13</v>
+        <v>5.42135581897126E-13</v>
       </c>
       <c r="AP2">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552286</v>
       </c>
       <c r="AQ2">
-        <v>158.1097491642543</v>
+        <v>158.1097491642544</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2199,40 +2199,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-2.084258736681484E-14</v>
+        <v>5.210646841703875E-15</v>
       </c>
       <c r="O3">
-        <v>2.436098485782495E-10</v>
+        <v>2.436080647125908E-10</v>
       </c>
       <c r="P3">
-        <v>6.797732009102621E-10</v>
+        <v>6.797857592479231E-10</v>
       </c>
       <c r="Q3">
-        <v>1.563194052511107E-14</v>
+        <v>-1.563194052511142E-14</v>
       </c>
       <c r="R3">
-        <v>-2.435982191734383E-10</v>
+        <v>-2.436032651107947E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797765648363851E-10</v>
+        <v>-6.79785759215809E-10</v>
       </c>
       <c r="T3">
-        <v>-2.605323420851907E-14</v>
+        <v>-1.04212936834075E-14</v>
       </c>
       <c r="U3">
-        <v>-1.940815908032162E-09</v>
+        <v>-1.940846489315921E-09</v>
       </c>
       <c r="V3">
-        <v>1.185359180243904E-09</v>
+        <v>1.185354134306547E-09</v>
       </c>
       <c r="W3">
-        <v>2.605323420851903E-14</v>
+        <v>1.04212936834074E-14</v>
       </c>
       <c r="X3">
-        <v>1.940822389617398E-09</v>
+        <v>1.940841095160787E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185367552432575E-09</v>
+        <v>-1.18535413427011E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2253,40 +2253,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AG3">
-        <v>0.681668345818751</v>
+        <v>0.6816683458187509</v>
       </c>
       <c r="AH3">
-        <v>0.4761907156443635</v>
+        <v>0.4761907156443627</v>
       </c>
       <c r="AI3">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458299558</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277809</v>
+        <v>0.4761907156277803</v>
       </c>
       <c r="AL3">
-        <v>5.665163787924766E-13</v>
+        <v>5.506075083748563E-13</v>
       </c>
       <c r="AM3">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541624</v>
       </c>
       <c r="AN3">
         <v>158.1097491638463</v>
       </c>
       <c r="AO3">
-        <v>5.545441815281501E-13</v>
+        <v>5.42135581897126E-13</v>
       </c>
       <c r="AP3">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552286</v>
       </c>
       <c r="AQ3">
-        <v>158.1097491642543</v>
+        <v>158.1097491642544</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2330,40 +2330,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.122143863946192E-28</v>
+        <v>5.210646841703875E-15</v>
       </c>
       <c r="O4">
-        <v>2.435973782159913E-10</v>
+        <v>2.436080647125908E-10</v>
       </c>
       <c r="P4">
-        <v>6.797765648684993E-10</v>
+        <v>6.797857592479231E-10</v>
       </c>
       <c r="Q4">
-        <v>-5.210646841704078E-15</v>
+        <v>-1.563194052511142E-14</v>
       </c>
       <c r="R4">
-        <v>-2.435982191734383E-10</v>
+        <v>-2.436032651107947E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797849370614934E-10</v>
+        <v>-6.79785759215809E-10</v>
       </c>
       <c r="T4">
-        <v>-3.126388105022264E-14</v>
+        <v>-1.04212936834075E-14</v>
       </c>
       <c r="U4">
-        <v>-1.940819271990399E-09</v>
+        <v>-1.940846489315921E-09</v>
       </c>
       <c r="V4">
-        <v>1.185367552469013E-09</v>
+        <v>1.185354134306547E-09</v>
       </c>
       <c r="W4">
-        <v>3.12638810502226E-14</v>
+        <v>1.04212936834074E-14</v>
       </c>
       <c r="X4">
-        <v>1.940822389617398E-09</v>
+        <v>1.940841095160787E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.185364188474338E-09</v>
+        <v>-1.18535413427011E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2384,40 +2384,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AG4">
         <v>0.6816683458187509</v>
       </c>
       <c r="AH4">
-        <v>0.4761907156443637</v>
+        <v>0.4761907156443627</v>
       </c>
       <c r="AI4">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458299558</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277809</v>
+        <v>0.4761907156277803</v>
       </c>
       <c r="AL4">
-        <v>5.721799739111493E-13</v>
+        <v>5.506075083748563E-13</v>
       </c>
       <c r="AM4">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541624</v>
       </c>
       <c r="AN4">
         <v>158.1097491638463</v>
       </c>
       <c r="AO4">
-        <v>5.545441815281501E-13</v>
+        <v>5.42135581897126E-13</v>
       </c>
       <c r="AP4">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552286</v>
       </c>
       <c r="AQ4">
-        <v>158.1097491642543</v>
+        <v>158.1097491642544</v>
       </c>
     </row>
   </sheetData>
@@ -2608,37 +2608,37 @@
         <v>-9.473903143471385E-15</v>
       </c>
       <c r="O2">
-        <v>-5.92129177606192E-15</v>
+        <v>-4.737053880083824E-15</v>
       </c>
       <c r="P2">
-        <v>-7.105530247957143E-15</v>
+        <v>2.368372896665883E-15</v>
       </c>
       <c r="Q2">
-        <v>4.736951571735751E-15</v>
+        <v>1.184237892933929E-14</v>
       </c>
       <c r="R2">
-        <v>7.106209196772966E-15</v>
+        <v>1.06589228642374E-14</v>
       </c>
       <c r="S2">
-        <v>9.474685566908042E-15</v>
+        <v>2.369258213225685E-15</v>
       </c>
       <c r="T2">
-        <v>-1.174291235863038E-28</v>
+        <v>-1.169879480112673E-28</v>
       </c>
       <c r="U2">
-        <v>4.763118490472593E-09</v>
+        <v>4.763104279617886E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763113757011744E-09</v>
+        <v>-4.763123230914892E-09</v>
       </c>
       <c r="W2">
-        <v>-4.736951571735634E-15</v>
+        <v>-4.736951571735541E-15</v>
       </c>
       <c r="X2">
-        <v>-4.763116121595246E-09</v>
+        <v>-4.763101910740539E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763118494364883E-09</v>
+        <v>4.763123231316458E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2662,22 +2662,22 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG2">
-        <v>0.4999999998169617</v>
+        <v>0.499999999816962</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833943</v>
+        <v>0.5000000001833944</v>
       </c>
       <c r="AI2">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748084</v>
+        <v>0.4999999997748087</v>
       </c>
       <c r="AK2">
         <v>0.5000000002255481</v>
       </c>
       <c r="AL2">
-        <v>7.101817562966736E-13</v>
+        <v>7.075136375613385E-13</v>
       </c>
       <c r="AM2">
         <v>-179.999999998762</v>
@@ -2686,13 +2686,13 @@
         <v>179.999999998755</v>
       </c>
       <c r="AO2">
-        <v>7.168607910624874E-13</v>
+        <v>7.352712101873848E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999905879</v>
+        <v>-179.999999990588</v>
       </c>
       <c r="AQ2">
-        <v>179.999999990581</v>
+        <v>179.9999999905809</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2736,40 +2736,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-7.105427357603596E-15</v>
+        <v>-9.473903143471503E-15</v>
       </c>
       <c r="O3">
-        <v>-1.183901772591708E-15</v>
+        <v>4.737287686124526E-15</v>
       </c>
       <c r="P3">
-        <v>2.368812096146955E-15</v>
+        <v>-2.368139476094278E-15</v>
       </c>
       <c r="Q3">
-        <v>4.736951571735751E-15</v>
+        <v>9.473903143471629E-15</v>
       </c>
       <c r="R3">
-        <v>2.368215167566046E-15</v>
+        <v>1.183977279966347E-15</v>
       </c>
       <c r="S3">
-        <v>4.736690766444529E-15</v>
+        <v>7.105166552042809E-15</v>
       </c>
       <c r="T3">
-        <v>4.736951571735604E-15</v>
+        <v>9.473903143471268E-15</v>
       </c>
       <c r="U3">
-        <v>-1.587712479247819E-09</v>
+        <v>-1.587707742296249E-09</v>
       </c>
       <c r="V3">
-        <v>1.587707743816771E-09</v>
+        <v>1.587707743816772E-09</v>
       </c>
       <c r="W3">
-        <v>-4.736951571735634E-15</v>
+        <v>-1.894780628694265E-14</v>
       </c>
       <c r="X3">
-        <v>1.587724321671361E-09</v>
+        <v>1.587710110816653E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587712480723728E-09</v>
+        <v>-1.587707743772154E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2793,37 +2793,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607575</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395993</v>
       </c>
       <c r="AI3">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748084</v>
+        <v>0.4999999997748087</v>
       </c>
       <c r="AK3">
         <v>0.5000000002255481</v>
       </c>
       <c r="AL3">
-        <v>7.063882515190411E-13</v>
+        <v>7.085542138992243E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999878632</v>
       </c>
       <c r="AN3">
-        <v>179.9999999878563</v>
+        <v>179.9999999878562</v>
       </c>
       <c r="AO3">
-        <v>7.168607910624874E-13</v>
+        <v>7.352712101873848E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999905879</v>
+        <v>-179.999999990588</v>
       </c>
       <c r="AQ3">
-        <v>179.999999990581</v>
+        <v>179.9999999905809</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2867,40 +2867,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.421085471520713E-14</v>
+        <v>-9.473903143471503E-15</v>
       </c>
       <c r="O4">
-        <v>8.290001369053892E-15</v>
+        <v>4.737287686124526E-15</v>
       </c>
       <c r="P4">
-        <v>7.105763672510212E-15</v>
+        <v>-2.368139476094278E-15</v>
       </c>
       <c r="Q4">
-        <v>-1.657933050107492E-14</v>
+        <v>9.473903143471629E-15</v>
       </c>
       <c r="R4">
-        <v>-7.10568797163507E-15</v>
+        <v>1.183977279966347E-15</v>
       </c>
       <c r="S4">
-        <v>-2.608089825354682E-19</v>
+        <v>7.105166552042809E-15</v>
       </c>
       <c r="T4">
-        <v>-4.736951571735515E-15</v>
+        <v>9.473903143471268E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587721953150956E-09</v>
+        <v>-1.587707742296249E-09</v>
       </c>
       <c r="V4">
-        <v>1.587717217719919E-09</v>
+        <v>1.587707743816772E-09</v>
       </c>
       <c r="W4">
-        <v>-2.074336378576325E-28</v>
+        <v>-1.894780628694265E-14</v>
       </c>
       <c r="X4">
-        <v>1.587724321671359E-09</v>
+        <v>1.587710110816653E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587721954626874E-09</v>
+        <v>-1.587707743772154E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2924,37 +2924,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607575</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002395993</v>
       </c>
       <c r="AI4">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748084</v>
+        <v>0.4999999997748087</v>
       </c>
       <c r="AK4">
         <v>0.5000000002255481</v>
       </c>
       <c r="AL4">
-        <v>7.13313644437706E-13</v>
+        <v>7.085542138992243E-13</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999878631</v>
+        <v>-179.9999999878632</v>
       </c>
       <c r="AN4">
-        <v>179.9999999878563</v>
+        <v>179.9999999878562</v>
       </c>
       <c r="AO4">
-        <v>7.168607910624874E-13</v>
+        <v>7.352712101873848E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999905879</v>
+        <v>-179.999999990588</v>
       </c>
       <c r="AQ4">
-        <v>179.999999990581</v>
+        <v>179.9999999905809</v>
       </c>
     </row>
   </sheetData>
@@ -3145,37 +3145,37 @@
         <v>-9.473903143471385E-15</v>
       </c>
       <c r="O2">
-        <v>-5.92129177606192E-15</v>
+        <v>-4.737053880083824E-15</v>
       </c>
       <c r="P2">
-        <v>-7.105530247957143E-15</v>
+        <v>2.368372896665883E-15</v>
       </c>
       <c r="Q2">
-        <v>4.736951571735751E-15</v>
+        <v>1.184237892933929E-14</v>
       </c>
       <c r="R2">
-        <v>7.106209196772966E-15</v>
+        <v>1.06589228642374E-14</v>
       </c>
       <c r="S2">
-        <v>9.474685566908042E-15</v>
+        <v>2.369258213225685E-15</v>
       </c>
       <c r="T2">
-        <v>-1.174291235863038E-28</v>
+        <v>-1.169879480112673E-28</v>
       </c>
       <c r="U2">
-        <v>4.763118490472593E-09</v>
+        <v>4.763104279617886E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763113757011744E-09</v>
+        <v>-4.763123230914892E-09</v>
       </c>
       <c r="W2">
-        <v>-4.736951571735634E-15</v>
+        <v>-4.736951571735541E-15</v>
       </c>
       <c r="X2">
-        <v>-4.763116121595246E-09</v>
+        <v>-4.763101910740539E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763118494364883E-09</v>
+        <v>4.763123231316458E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3199,22 +3199,22 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG2">
-        <v>0.4999999998169617</v>
+        <v>0.499999999816962</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833943</v>
+        <v>0.5000000001833944</v>
       </c>
       <c r="AI2">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748084</v>
+        <v>0.4999999997748087</v>
       </c>
       <c r="AK2">
         <v>0.5000000002255481</v>
       </c>
       <c r="AL2">
-        <v>7.101817562966736E-13</v>
+        <v>7.075136375613385E-13</v>
       </c>
       <c r="AM2">
         <v>-179.999999998762</v>
@@ -3223,13 +3223,13 @@
         <v>179.999999998755</v>
       </c>
       <c r="AO2">
-        <v>7.168607910624874E-13</v>
+        <v>7.352712101873848E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999905879</v>
+        <v>-179.999999990588</v>
       </c>
       <c r="AQ2">
-        <v>179.999999990581</v>
+        <v>179.9999999905809</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3273,40 +3273,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-7.105427357603596E-15</v>
+        <v>-9.473903143471503E-15</v>
       </c>
       <c r="O3">
-        <v>-1.183901772591708E-15</v>
+        <v>4.737287686124526E-15</v>
       </c>
       <c r="P3">
-        <v>2.368812096146955E-15</v>
+        <v>-2.368139476094278E-15</v>
       </c>
       <c r="Q3">
-        <v>4.736951571735751E-15</v>
+        <v>9.473903143471629E-15</v>
       </c>
       <c r="R3">
-        <v>2.368215167566046E-15</v>
+        <v>1.183977279966347E-15</v>
       </c>
       <c r="S3">
-        <v>4.736690766444529E-15</v>
+        <v>7.105166552042809E-15</v>
       </c>
       <c r="T3">
-        <v>4.736951571735604E-15</v>
+        <v>9.473903143471268E-15</v>
       </c>
       <c r="U3">
-        <v>-1.587712479247819E-09</v>
+        <v>-1.587707742296249E-09</v>
       </c>
       <c r="V3">
-        <v>1.587707743816771E-09</v>
+        <v>1.587707743816772E-09</v>
       </c>
       <c r="W3">
-        <v>-4.736951571735634E-15</v>
+        <v>-1.894780628694265E-14</v>
       </c>
       <c r="X3">
-        <v>1.587724321671361E-09</v>
+        <v>1.587710110816653E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587712480723728E-09</v>
+        <v>-1.587707743772154E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3330,37 +3330,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607575</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395993</v>
       </c>
       <c r="AI3">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748084</v>
+        <v>0.4999999997748087</v>
       </c>
       <c r="AK3">
         <v>0.5000000002255481</v>
       </c>
       <c r="AL3">
-        <v>7.063882515190411E-13</v>
+        <v>7.085542138992243E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999878632</v>
       </c>
       <c r="AN3">
-        <v>179.9999999878563</v>
+        <v>179.9999999878562</v>
       </c>
       <c r="AO3">
-        <v>7.168607910624874E-13</v>
+        <v>7.352712101873848E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999905879</v>
+        <v>-179.999999990588</v>
       </c>
       <c r="AQ3">
-        <v>179.999999990581</v>
+        <v>179.9999999905809</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3404,40 +3404,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.421085471520713E-14</v>
+        <v>-9.473903143471503E-15</v>
       </c>
       <c r="O4">
-        <v>8.290001369053892E-15</v>
+        <v>4.737287686124526E-15</v>
       </c>
       <c r="P4">
-        <v>7.105763672510212E-15</v>
+        <v>-2.368139476094278E-15</v>
       </c>
       <c r="Q4">
-        <v>-1.657933050107492E-14</v>
+        <v>9.473903143471629E-15</v>
       </c>
       <c r="R4">
-        <v>-7.10568797163507E-15</v>
+        <v>1.183977279966347E-15</v>
       </c>
       <c r="S4">
-        <v>-2.608089825354682E-19</v>
+        <v>7.105166552042809E-15</v>
       </c>
       <c r="T4">
-        <v>-4.736951571735515E-15</v>
+        <v>9.473903143471268E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587721953150956E-09</v>
+        <v>-1.587707742296249E-09</v>
       </c>
       <c r="V4">
-        <v>1.587717217719919E-09</v>
+        <v>1.587707743816772E-09</v>
       </c>
       <c r="W4">
-        <v>-2.074336378576325E-28</v>
+        <v>-1.894780628694265E-14</v>
       </c>
       <c r="X4">
-        <v>1.587724321671359E-09</v>
+        <v>1.587710110816653E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587721954626874E-09</v>
+        <v>-1.587707743772154E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3461,37 +3461,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607575</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002395993</v>
       </c>
       <c r="AI4">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748084</v>
+        <v>0.4999999997748087</v>
       </c>
       <c r="AK4">
         <v>0.5000000002255481</v>
       </c>
       <c r="AL4">
-        <v>7.13313644437706E-13</v>
+        <v>7.085542138992243E-13</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999878631</v>
+        <v>-179.9999999878632</v>
       </c>
       <c r="AN4">
-        <v>179.9999999878563</v>
+        <v>179.9999999878562</v>
       </c>
       <c r="AO4">
-        <v>7.168607910624874E-13</v>
+        <v>7.352712101873848E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999905879</v>
+        <v>-179.999999990588</v>
       </c>
       <c r="AQ4">
-        <v>179.999999990581</v>
+        <v>179.9999999905809</v>
       </c>
     </row>
   </sheetData>
@@ -3679,40 +3679,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.36847578588079E-15</v>
+        <v>-1.657933050116521E-14</v>
       </c>
       <c r="O2">
-        <v>-5.559634061250688E-10</v>
+        <v>-5.55964566108997E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551459837822061E-09</v>
+        <v>-1.551457898040667E-09</v>
       </c>
       <c r="Q2">
-        <v>-2.368475785880691E-15</v>
+        <v>1.421085471528444E-14</v>
       </c>
       <c r="R2">
-        <v>5.559693762172179E-10</v>
+        <v>5.559676706955123E-10</v>
       </c>
       <c r="S2">
-        <v>1.551463717864591E-09</v>
+        <v>1.551461778083199E-09</v>
       </c>
       <c r="T2">
-        <v>4.736951571761458E-15</v>
+        <v>2.36847578588057E-15</v>
       </c>
       <c r="U2">
-        <v>4.833146696288446E-09</v>
+        <v>4.833127150264952E-09</v>
       </c>
       <c r="V2">
-        <v>-3.10888915612577E-09</v>
+        <v>-3.108889838334451E-09</v>
       </c>
       <c r="W2">
-        <v>-4.736951571761505E-15</v>
+        <v>1.517963479830649E-28</v>
       </c>
       <c r="X2">
-        <v>-4.833140794727989E-09</v>
+        <v>-4.833133801802554E-09</v>
       </c>
       <c r="Y2">
-        <v>3.108887791991908E-09</v>
+        <v>3.108888474200587E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         <v>0.6078088903891383</v>
       </c>
       <c r="AH2">
-        <v>0.434087010414059</v>
+        <v>0.4340870104140593</v>
       </c>
       <c r="AI2">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608012</v>
+        <v>0.6078088903608013</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725136</v>
       </c>
       <c r="AL2">
-        <v>5.890989761634251E-13</v>
+        <v>5.88656024540216E-13</v>
       </c>
       <c r="AM2">
         <v>-166.2935793302449</v>
@@ -3760,13 +3760,13 @@
         <v>160.6235536346805</v>
       </c>
       <c r="AO2">
-        <v>5.979348424895735E-13</v>
+        <v>6.120173810217133E-13</v>
       </c>
       <c r="AP2">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242506</v>
       </c>
       <c r="AQ2">
-        <v>160.6235536296895</v>
+        <v>160.6235536296894</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3810,40 +3810,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-7.105427357642171E-15</v>
+        <v>-4.736951571761456E-15</v>
       </c>
       <c r="O3">
-        <v>1.853220451998118E-10</v>
+        <v>1.853251834743247E-10</v>
       </c>
       <c r="P3">
-        <v>5.171542603285709E-10</v>
+        <v>5.171528959112118E-10</v>
       </c>
       <c r="Q3">
-        <v>2.368475785880691E-15</v>
+        <v>4.736951571761482E-15</v>
       </c>
       <c r="R3">
-        <v>-1.853175082869057E-10</v>
+        <v>-1.853220109787783E-10</v>
       </c>
       <c r="S3">
-        <v>-5.1715232049387E-10</v>
+        <v>-5.171523204938714E-10</v>
       </c>
       <c r="T3">
-        <v>-4.736951571761553E-15</v>
+        <v>-2.368475785880789E-15</v>
       </c>
       <c r="U3">
-        <v>-1.61105262819705E-09</v>
+        <v>-1.611053344573457E-09</v>
       </c>
       <c r="V3">
-        <v>1.036303306245034E-09</v>
+        <v>1.036299426682239E-09</v>
       </c>
       <c r="W3">
-        <v>4.736951571761505E-15</v>
+        <v>5.059878266102162E-29</v>
       </c>
       <c r="X3">
-        <v>1.611052252956482E-09</v>
+        <v>1.611058563673238E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.036303988422214E-09</v>
+        <v>-1.036303988422213E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513557</v>
+        <v>0.6078088903513555</v>
       </c>
       <c r="AH3">
         <v>0.4340870104919983</v>
@@ -3876,28 +3876,28 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608012</v>
+        <v>0.6078088903608013</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725136</v>
       </c>
       <c r="AL3">
-        <v>5.886568762626629E-13</v>
+        <v>5.93899162680892E-13</v>
       </c>
       <c r="AM3">
-        <v>-166.2935793222523</v>
+        <v>-166.2935793222524</v>
       </c>
       <c r="AN3">
-        <v>160.6235536280259</v>
+        <v>160.6235536280258</v>
       </c>
       <c r="AO3">
-        <v>5.979348424895735E-13</v>
+        <v>6.120173810217133E-13</v>
       </c>
       <c r="AP3">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242506</v>
       </c>
       <c r="AQ3">
-        <v>160.6235536296895</v>
+        <v>160.6235536296894</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3941,40 +3941,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.368475785880716E-15</v>
+        <v>-4.736951571761456E-15</v>
       </c>
       <c r="O4">
-        <v>1.853317327922415E-10</v>
+        <v>1.853251834743247E-10</v>
       </c>
       <c r="P4">
-        <v>5.171517451831368E-10</v>
+        <v>5.171528959112118E-10</v>
       </c>
       <c r="Q4">
-        <v>-7.105427357642196E-15</v>
+        <v>4.736951571761482E-15</v>
       </c>
       <c r="R4">
-        <v>-1.853313574668689E-10</v>
+        <v>-1.853220109787783E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171531095471927E-10</v>
+        <v>-5.171523204938714E-10</v>
       </c>
       <c r="T4">
-        <v>2.368475785880764E-15</v>
+        <v>-2.368475785880789E-15</v>
       </c>
       <c r="U4">
-        <v>-1.611068046800736E-09</v>
+        <v>-1.611053344573457E-09</v>
       </c>
       <c r="V4">
-        <v>1.036308550225189E-09</v>
+        <v>1.036299426682239E-09</v>
       </c>
       <c r="W4">
-        <v>-2.368475785880815E-15</v>
+        <v>5.059878266102162E-29</v>
       </c>
       <c r="X4">
-        <v>1.611072583691837E-09</v>
+        <v>1.611058563673238E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036312429756483E-09</v>
+        <v>-1.036303988422213E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3998,37 +3998,37 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513558</v>
+        <v>0.6078088903513555</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919983</v>
       </c>
       <c r="AI4">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608012</v>
+        <v>0.6078088903608013</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725136</v>
       </c>
       <c r="AL4">
-        <v>5.886571720720432E-13</v>
+        <v>5.93899162680892E-13</v>
       </c>
       <c r="AM4">
-        <v>-166.2935793222523</v>
+        <v>-166.2935793222524</v>
       </c>
       <c r="AN4">
         <v>160.6235536280258</v>
       </c>
       <c r="AO4">
-        <v>5.979348424895735E-13</v>
+        <v>6.120173810217133E-13</v>
       </c>
       <c r="AP4">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242506</v>
       </c>
       <c r="AQ4">
-        <v>160.6235536296895</v>
+        <v>160.6235536296894</v>
       </c>
     </row>
   </sheetData>
@@ -4216,40 +4216,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.36847578588079E-15</v>
+        <v>-1.657933050116521E-14</v>
       </c>
       <c r="O2">
-        <v>-5.559634061250688E-10</v>
+        <v>-5.55964566108997E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551459837822061E-09</v>
+        <v>-1.551457898040667E-09</v>
       </c>
       <c r="Q2">
-        <v>-2.368475785880691E-15</v>
+        <v>1.421085471528444E-14</v>
       </c>
       <c r="R2">
-        <v>5.559693762172179E-10</v>
+        <v>5.559676706955123E-10</v>
       </c>
       <c r="S2">
-        <v>1.551463717864591E-09</v>
+        <v>1.551461778083199E-09</v>
       </c>
       <c r="T2">
-        <v>4.736951571761458E-15</v>
+        <v>2.36847578588057E-15</v>
       </c>
       <c r="U2">
-        <v>4.833146696288446E-09</v>
+        <v>4.833127150264952E-09</v>
       </c>
       <c r="V2">
-        <v>-3.10888915612577E-09</v>
+        <v>-3.108889838334451E-09</v>
       </c>
       <c r="W2">
-        <v>-4.736951571761505E-15</v>
+        <v>1.517963479830649E-28</v>
       </c>
       <c r="X2">
-        <v>-4.833140794727989E-09</v>
+        <v>-4.833133801802554E-09</v>
       </c>
       <c r="Y2">
-        <v>3.108887791991908E-09</v>
+        <v>3.108888474200587E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4276,19 +4276,19 @@
         <v>0.6078088903891383</v>
       </c>
       <c r="AH2">
-        <v>0.434087010414059</v>
+        <v>0.4340870104140593</v>
       </c>
       <c r="AI2">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608012</v>
+        <v>0.6078088903608013</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725136</v>
       </c>
       <c r="AL2">
-        <v>5.890989761634251E-13</v>
+        <v>5.88656024540216E-13</v>
       </c>
       <c r="AM2">
         <v>-166.2935793302449</v>
@@ -4297,13 +4297,13 @@
         <v>160.6235536346805</v>
       </c>
       <c r="AO2">
-        <v>5.979348424895735E-13</v>
+        <v>6.120173810217133E-13</v>
       </c>
       <c r="AP2">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242506</v>
       </c>
       <c r="AQ2">
-        <v>160.6235536296895</v>
+        <v>160.6235536296894</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4347,40 +4347,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-7.105427357642171E-15</v>
+        <v>-4.736951571761456E-15</v>
       </c>
       <c r="O3">
-        <v>1.853220451998118E-10</v>
+        <v>1.853251834743247E-10</v>
       </c>
       <c r="P3">
-        <v>5.171542603285709E-10</v>
+        <v>5.171528959112118E-10</v>
       </c>
       <c r="Q3">
-        <v>2.368475785880691E-15</v>
+        <v>4.736951571761482E-15</v>
       </c>
       <c r="R3">
-        <v>-1.853175082869057E-10</v>
+        <v>-1.853220109787783E-10</v>
       </c>
       <c r="S3">
-        <v>-5.1715232049387E-10</v>
+        <v>-5.171523204938714E-10</v>
       </c>
       <c r="T3">
-        <v>-4.736951571761553E-15</v>
+        <v>-2.368475785880789E-15</v>
       </c>
       <c r="U3">
-        <v>-1.61105262819705E-09</v>
+        <v>-1.611053344573457E-09</v>
       </c>
       <c r="V3">
-        <v>1.036303306245034E-09</v>
+        <v>1.036299426682239E-09</v>
       </c>
       <c r="W3">
-        <v>4.736951571761505E-15</v>
+        <v>5.059878266102162E-29</v>
       </c>
       <c r="X3">
-        <v>1.611052252956482E-09</v>
+        <v>1.611058563673238E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.036303988422214E-09</v>
+        <v>-1.036303988422213E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513557</v>
+        <v>0.6078088903513555</v>
       </c>
       <c r="AH3">
         <v>0.4340870104919983</v>
@@ -4413,28 +4413,28 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608012</v>
+        <v>0.6078088903608013</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725136</v>
       </c>
       <c r="AL3">
-        <v>5.886568762626629E-13</v>
+        <v>5.93899162680892E-13</v>
       </c>
       <c r="AM3">
-        <v>-166.2935793222523</v>
+        <v>-166.2935793222524</v>
       </c>
       <c r="AN3">
-        <v>160.6235536280259</v>
+        <v>160.6235536280258</v>
       </c>
       <c r="AO3">
-        <v>5.979348424895735E-13</v>
+        <v>6.120173810217133E-13</v>
       </c>
       <c r="AP3">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242506</v>
       </c>
       <c r="AQ3">
-        <v>160.6235536296895</v>
+        <v>160.6235536296894</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4478,40 +4478,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.368475785880716E-15</v>
+        <v>-4.736951571761456E-15</v>
       </c>
       <c r="O4">
-        <v>1.853317327922415E-10</v>
+        <v>1.853251834743247E-10</v>
       </c>
       <c r="P4">
-        <v>5.171517451831368E-10</v>
+        <v>5.171528959112118E-10</v>
       </c>
       <c r="Q4">
-        <v>-7.105427357642196E-15</v>
+        <v>4.736951571761482E-15</v>
       </c>
       <c r="R4">
-        <v>-1.853313574668689E-10</v>
+        <v>-1.853220109787783E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171531095471927E-10</v>
+        <v>-5.171523204938714E-10</v>
       </c>
       <c r="T4">
-        <v>2.368475785880764E-15</v>
+        <v>-2.368475785880789E-15</v>
       </c>
       <c r="U4">
-        <v>-1.611068046800736E-09</v>
+        <v>-1.611053344573457E-09</v>
       </c>
       <c r="V4">
-        <v>1.036308550225189E-09</v>
+        <v>1.036299426682239E-09</v>
       </c>
       <c r="W4">
-        <v>-2.368475785880815E-15</v>
+        <v>5.059878266102162E-29</v>
       </c>
       <c r="X4">
-        <v>1.611072583691837E-09</v>
+        <v>1.611058563673238E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036312429756483E-09</v>
+        <v>-1.036303988422213E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4535,37 +4535,37 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513558</v>
+        <v>0.6078088903513555</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919983</v>
       </c>
       <c r="AI4">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608012</v>
+        <v>0.6078088903608013</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725136</v>
       </c>
       <c r="AL4">
-        <v>5.886571720720432E-13</v>
+        <v>5.93899162680892E-13</v>
       </c>
       <c r="AM4">
-        <v>-166.2935793222523</v>
+        <v>-166.2935793222524</v>
       </c>
       <c r="AN4">
         <v>160.6235536280258</v>
       </c>
       <c r="AO4">
-        <v>5.979348424895735E-13</v>
+        <v>6.120173810217133E-13</v>
       </c>
       <c r="AP4">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242506</v>
       </c>
       <c r="AQ4">
-        <v>160.6235536296895</v>
+        <v>160.6235536296894</v>
       </c>
     </row>
   </sheetData>
@@ -4756,40 +4756,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.948863939231875E-09</v>
+        <v>-2.948856162337472E-09</v>
       </c>
       <c r="O2">
-        <v>-7.361108608868004E-10</v>
+        <v>-7.361021489981691E-10</v>
       </c>
       <c r="P2">
-        <v>-7.38325857310328E-10</v>
+        <v>-7.383567741688051E-10</v>
       </c>
       <c r="Q2">
-        <v>2.948864364899041E-09</v>
+        <v>2.948853139193205E-09</v>
       </c>
       <c r="R2">
-        <v>7.36093887718208E-10</v>
+        <v>7.36102364871326E-10</v>
       </c>
       <c r="S2">
-        <v>7.383303694094561E-10</v>
+        <v>7.383522621973277E-10</v>
       </c>
       <c r="T2">
-        <v>-2.618910895279132E-12</v>
+        <v>-2.631854800034447E-12</v>
       </c>
       <c r="U2">
-        <v>-3.854459686969427E-09</v>
+        <v>-3.854450827418432E-09</v>
       </c>
       <c r="V2">
-        <v>3.853124448217782E-09</v>
+        <v>3.853090470107382E-09</v>
       </c>
       <c r="W2">
-        <v>2.629270291448903E-12</v>
+        <v>2.635306228678282E-12</v>
       </c>
       <c r="X2">
-        <v>3.854468781328352E-09</v>
+        <v>3.854451955758292E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.853123584908041E-09</v>
+        <v>-3.853091333272289E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4810,25 +4810,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3644696238511731</v>
+        <v>0.364469623851174</v>
       </c>
       <c r="AH2">
-        <v>0.9700090737384334</v>
+        <v>0.9700090737384328</v>
       </c>
       <c r="AI2">
-        <v>0.969794580847491</v>
+        <v>0.9697945808474919</v>
       </c>
       <c r="AJ2">
-        <v>0.3644696238827592</v>
+        <v>0.3644696238827602</v>
       </c>
       <c r="AK2">
-        <v>0.9700090737589764</v>
+        <v>0.9700090737589758</v>
       </c>
       <c r="AL2">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328802</v>
       </c>
       <c r="AM2">
-        <v>0.03433038499314061</v>
+        <v>0.03433038499306031</v>
       </c>
       <c r="AN2">
         <v>-100.8284562165842</v>
@@ -4837,7 +4837,7 @@
         <v>100.8308801221831</v>
       </c>
       <c r="AP2">
-        <v>0.03433039061688672</v>
+        <v>0.03433039061675894</v>
       </c>
       <c r="AQ2">
         <v>-100.8284562173012</v>
@@ -4887,40 +4887,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.829534893341949E-10</v>
+        <v>9.829508991049927E-10</v>
       </c>
       <c r="O3">
-        <v>2.453676972786625E-10</v>
+        <v>2.453574936508957E-10</v>
       </c>
       <c r="P3">
-        <v>2.461266672730184E-10</v>
+        <v>2.461167799650905E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.829530597560996E-10</v>
+        <v>-9.829470207154674E-10</v>
       </c>
       <c r="R3">
-        <v>-2.453674814622398E-10</v>
+        <v>-2.453572778344732E-10</v>
       </c>
       <c r="S3">
-        <v>-2.461238817052723E-10</v>
+        <v>-2.46111404685373E-10</v>
       </c>
       <c r="T3">
-        <v>8.833285854094425E-13</v>
+        <v>8.841902710314904E-13</v>
       </c>
       <c r="U3">
-        <v>1.284806356479356E-09</v>
+        <v>1.284814155909876E-09</v>
       </c>
       <c r="V3">
-        <v>-1.284371363091113E-09</v>
+        <v>-1.28436857753046E-09</v>
       </c>
       <c r="W3">
-        <v>-8.798753453121851E-13</v>
+        <v>-8.738290634105057E-13</v>
       </c>
       <c r="X3">
-        <v>-1.284805228203867E-09</v>
+        <v>-1.284813027634387E-09</v>
       </c>
       <c r="Y3">
-        <v>1.284381250407088E-09</v>
+        <v>1.284364928740528E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4941,25 +4941,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3644696238932878</v>
+        <v>0.3644696238932887</v>
       </c>
       <c r="AH3">
-        <v>0.970009073765824</v>
+        <v>0.9700090737658236</v>
       </c>
       <c r="AI3">
-        <v>0.9697945808280084</v>
+        <v>0.9697945808280094</v>
       </c>
       <c r="AJ3">
-        <v>0.3644696238827592</v>
+        <v>0.3644696238827602</v>
       </c>
       <c r="AK3">
-        <v>0.9700090737589764</v>
+        <v>0.9700090737589758</v>
       </c>
       <c r="AL3">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328802</v>
       </c>
       <c r="AM3">
-        <v>0.03433039249144968</v>
+        <v>0.03433039249131817</v>
       </c>
       <c r="AN3">
         <v>-100.8284562175402</v>
@@ -4968,7 +4968,7 @@
         <v>100.8308801236691</v>
       </c>
       <c r="AP3">
-        <v>0.03433039061688672</v>
+        <v>0.03433039061675894</v>
       </c>
       <c r="AQ3">
         <v>-100.8284562173012</v>
@@ -5018,40 +5018,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.829500405227651E-10</v>
+        <v>9.829508991049927E-10</v>
       </c>
       <c r="O4">
-        <v>2.453586711391252E-10</v>
+        <v>2.453574936508957E-10</v>
       </c>
       <c r="P4">
-        <v>2.461068926571617E-10</v>
+        <v>2.461167799650905E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.829565168432605E-10</v>
+        <v>-9.829470207154674E-10</v>
       </c>
       <c r="R4">
-        <v>-2.453584553227027E-10</v>
+        <v>-2.453572778344732E-10</v>
       </c>
       <c r="S4">
-        <v>-2.46102380614768E-10</v>
+        <v>-2.46111404685373E-10</v>
       </c>
       <c r="T4">
-        <v>8.764206178853519E-13</v>
+        <v>8.841902710314904E-13</v>
       </c>
       <c r="U4">
-        <v>1.284808082954004E-09</v>
+        <v>1.284814155909876E-09</v>
       </c>
       <c r="V4">
-        <v>-1.284365791969805E-09</v>
+        <v>-1.28436857753046E-09</v>
       </c>
       <c r="W4">
-        <v>-8.729715156537504E-13</v>
+        <v>-8.738290634105057E-13</v>
       </c>
       <c r="X4">
-        <v>-1.284806954678515E-09</v>
+        <v>-1.284813027634387E-09</v>
       </c>
       <c r="Y4">
-        <v>1.284366655215175E-09</v>
+        <v>1.284364928740528E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5072,25 +5072,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3644696238932878</v>
+        <v>0.3644696238932887</v>
       </c>
       <c r="AH4">
-        <v>0.970009073765824</v>
+        <v>0.9700090737658236</v>
       </c>
       <c r="AI4">
-        <v>0.9697945808280083</v>
+        <v>0.9697945808280094</v>
       </c>
       <c r="AJ4">
-        <v>0.3644696238827592</v>
+        <v>0.3644696238827602</v>
       </c>
       <c r="AK4">
-        <v>0.9700090737589764</v>
+        <v>0.9700090737589758</v>
       </c>
       <c r="AL4">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328802</v>
       </c>
       <c r="AM4">
-        <v>0.03433039249145395</v>
+        <v>0.03433039249131817</v>
       </c>
       <c r="AN4">
         <v>-100.8284562175402</v>
@@ -5099,7 +5099,7 @@
         <v>100.8308801236691</v>
       </c>
       <c r="AP4">
-        <v>0.03433039061688672</v>
+        <v>0.03433039061675894</v>
       </c>
       <c r="AQ4">
         <v>-100.8284562173012</v>
@@ -5296,40 +5296,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.948863939231875E-09</v>
+        <v>-2.948856162337472E-09</v>
       </c>
       <c r="O2">
-        <v>-7.361108608868004E-10</v>
+        <v>-7.361021489981691E-10</v>
       </c>
       <c r="P2">
-        <v>-7.38325857310328E-10</v>
+        <v>-7.383567741688051E-10</v>
       </c>
       <c r="Q2">
-        <v>2.948864364899041E-09</v>
+        <v>2.948853139193205E-09</v>
       </c>
       <c r="R2">
-        <v>7.36093887718208E-10</v>
+        <v>7.36102364871326E-10</v>
       </c>
       <c r="S2">
-        <v>7.383303694094561E-10</v>
+        <v>7.383522621973277E-10</v>
       </c>
       <c r="T2">
-        <v>-2.618910895279132E-12</v>
+        <v>-2.631854800034447E-12</v>
       </c>
       <c r="U2">
-        <v>-3.854459686969427E-09</v>
+        <v>-3.854450827418432E-09</v>
       </c>
       <c r="V2">
-        <v>3.853124448217782E-09</v>
+        <v>3.853090470107382E-09</v>
       </c>
       <c r="W2">
-        <v>2.629270291448903E-12</v>
+        <v>2.635306228678282E-12</v>
       </c>
       <c r="X2">
-        <v>3.854468781328352E-09</v>
+        <v>3.854451955758292E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.853123584908041E-09</v>
+        <v>-3.853091333272289E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5350,25 +5350,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3644696238511731</v>
+        <v>0.364469623851174</v>
       </c>
       <c r="AH2">
-        <v>0.9700090737384334</v>
+        <v>0.9700090737384328</v>
       </c>
       <c r="AI2">
-        <v>0.969794580847491</v>
+        <v>0.9697945808474919</v>
       </c>
       <c r="AJ2">
-        <v>0.3644696238827592</v>
+        <v>0.3644696238827602</v>
       </c>
       <c r="AK2">
-        <v>0.9700090737589764</v>
+        <v>0.9700090737589758</v>
       </c>
       <c r="AL2">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328802</v>
       </c>
       <c r="AM2">
-        <v>0.03433038499314061</v>
+        <v>0.03433038499306031</v>
       </c>
       <c r="AN2">
         <v>-100.8284562165842</v>
@@ -5377,7 +5377,7 @@
         <v>100.8308801221831</v>
       </c>
       <c r="AP2">
-        <v>0.03433039061688672</v>
+        <v>0.03433039061675894</v>
       </c>
       <c r="AQ2">
         <v>-100.8284562173012</v>
@@ -5427,40 +5427,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.829534893341949E-10</v>
+        <v>9.829508991049927E-10</v>
       </c>
       <c r="O3">
-        <v>2.453676972786625E-10</v>
+        <v>2.453574936508957E-10</v>
       </c>
       <c r="P3">
-        <v>2.461266672730184E-10</v>
+        <v>2.461167799650905E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.829530597560996E-10</v>
+        <v>-9.829470207154674E-10</v>
       </c>
       <c r="R3">
-        <v>-2.453674814622398E-10</v>
+        <v>-2.453572778344732E-10</v>
       </c>
       <c r="S3">
-        <v>-2.461238817052723E-10</v>
+        <v>-2.46111404685373E-10</v>
       </c>
       <c r="T3">
-        <v>8.833285854094425E-13</v>
+        <v>8.841902710314904E-13</v>
       </c>
       <c r="U3">
-        <v>1.284806356479356E-09</v>
+        <v>1.284814155909876E-09</v>
       </c>
       <c r="V3">
-        <v>-1.284371363091113E-09</v>
+        <v>-1.28436857753046E-09</v>
       </c>
       <c r="W3">
-        <v>-8.798753453121851E-13</v>
+        <v>-8.738290634105057E-13</v>
       </c>
       <c r="X3">
-        <v>-1.284805228203867E-09</v>
+        <v>-1.284813027634387E-09</v>
       </c>
       <c r="Y3">
-        <v>1.284381250407088E-09</v>
+        <v>1.284364928740528E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5481,25 +5481,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3644696238932878</v>
+        <v>0.3644696238932887</v>
       </c>
       <c r="AH3">
-        <v>0.970009073765824</v>
+        <v>0.9700090737658236</v>
       </c>
       <c r="AI3">
-        <v>0.9697945808280084</v>
+        <v>0.9697945808280094</v>
       </c>
       <c r="AJ3">
-        <v>0.3644696238827592</v>
+        <v>0.3644696238827602</v>
       </c>
       <c r="AK3">
-        <v>0.9700090737589764</v>
+        <v>0.9700090737589758</v>
       </c>
       <c r="AL3">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328802</v>
       </c>
       <c r="AM3">
-        <v>0.03433039249144968</v>
+        <v>0.03433039249131817</v>
       </c>
       <c r="AN3">
         <v>-100.8284562175402</v>
@@ -5508,7 +5508,7 @@
         <v>100.8308801236691</v>
       </c>
       <c r="AP3">
-        <v>0.03433039061688672</v>
+        <v>0.03433039061675894</v>
       </c>
       <c r="AQ3">
         <v>-100.8284562173012</v>
@@ -5558,40 +5558,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.829500405227651E-10</v>
+        <v>9.829508991049927E-10</v>
       </c>
       <c r="O4">
-        <v>2.453586711391252E-10</v>
+        <v>2.453574936508957E-10</v>
       </c>
       <c r="P4">
-        <v>2.461068926571617E-10</v>
+        <v>2.461167799650905E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.829565168432605E-10</v>
+        <v>-9.829470207154674E-10</v>
       </c>
       <c r="R4">
-        <v>-2.453584553227027E-10</v>
+        <v>-2.453572778344732E-10</v>
       </c>
       <c r="S4">
-        <v>-2.46102380614768E-10</v>
+        <v>-2.46111404685373E-10</v>
       </c>
       <c r="T4">
-        <v>8.764206178853519E-13</v>
+        <v>8.841902710314904E-13</v>
       </c>
       <c r="U4">
-        <v>1.284808082954004E-09</v>
+        <v>1.284814155909876E-09</v>
       </c>
       <c r="V4">
-        <v>-1.284365791969805E-09</v>
+        <v>-1.28436857753046E-09</v>
       </c>
       <c r="W4">
-        <v>-8.729715156537504E-13</v>
+        <v>-8.738290634105057E-13</v>
       </c>
       <c r="X4">
-        <v>-1.284806954678515E-09</v>
+        <v>-1.284813027634387E-09</v>
       </c>
       <c r="Y4">
-        <v>1.284366655215175E-09</v>
+        <v>1.284364928740528E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5612,25 +5612,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3644696238932878</v>
+        <v>0.3644696238932887</v>
       </c>
       <c r="AH4">
-        <v>0.970009073765824</v>
+        <v>0.9700090737658236</v>
       </c>
       <c r="AI4">
-        <v>0.9697945808280083</v>
+        <v>0.9697945808280094</v>
       </c>
       <c r="AJ4">
-        <v>0.3644696238827592</v>
+        <v>0.3644696238827602</v>
       </c>
       <c r="AK4">
-        <v>0.9700090737589764</v>
+        <v>0.9700090737589758</v>
       </c>
       <c r="AL4">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328802</v>
       </c>
       <c r="AM4">
-        <v>0.03433039249145395</v>
+        <v>0.03433039249131817</v>
       </c>
       <c r="AN4">
         <v>-100.8284562175402</v>
@@ -5639,7 +5639,7 @@
         <v>100.8308801236691</v>
       </c>
       <c r="AP4">
-        <v>0.03433039061688672</v>
+        <v>0.03433039061675894</v>
       </c>
       <c r="AQ4">
         <v>-100.8284562173012</v>
@@ -5836,40 +5836,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.139249241493579E-09</v>
+        <v>-3.139228873370212E-09</v>
       </c>
       <c r="O2">
-        <v>-1.400995387478714E-09</v>
+        <v>-1.401003394488048E-09</v>
       </c>
       <c r="P2">
-        <v>-1.686219796577501E-10</v>
+        <v>-1.686454538605381E-10</v>
       </c>
       <c r="Q2">
-        <v>3.139248476705073E-09</v>
+        <v>3.139228688508274E-09</v>
       </c>
       <c r="R2">
-        <v>1.400989016195619E-09</v>
+        <v>1.400996724466223E-09</v>
       </c>
       <c r="S2">
-        <v>1.686291663183064E-10</v>
+        <v>1.686526405210941E-10</v>
       </c>
       <c r="T2">
-        <v>1.422985183143338E-09</v>
+        <v>1.422967061913273E-09</v>
       </c>
       <c r="U2">
-        <v>-2.225727893405556E-09</v>
+        <v>-2.225706282573443E-09</v>
       </c>
       <c r="V2">
-        <v>2.937195445690233E-09</v>
+        <v>2.937177952385466E-09</v>
       </c>
       <c r="W2">
-        <v>-1.422977573267154E-09</v>
+        <v>-1.422960310497985E-09</v>
       </c>
       <c r="X2">
-        <v>2.225726515910573E-09</v>
+        <v>2.225714451905484E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.937193288074692E-09</v>
+        <v>-2.937175794769925E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5890,25 +5890,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6185866318522062</v>
+        <v>0.6185866318522069</v>
       </c>
       <c r="AH2">
-        <v>0.9439982598637769</v>
+        <v>0.9439982598637765</v>
       </c>
       <c r="AI2">
         <v>1.056026550193052</v>
       </c>
       <c r="AJ2">
-        <v>0.6185866318618189</v>
+        <v>0.6185866318618196</v>
       </c>
       <c r="AK2">
-        <v>0.9439982598799983</v>
+        <v>0.9439982598799977</v>
       </c>
       <c r="AL2">
         <v>1.056026550181367</v>
       </c>
       <c r="AM2">
-        <v>-10.95931300975977</v>
+        <v>-10.95931300975979</v>
       </c>
       <c r="AN2">
         <v>-108.7637340183826</v>
@@ -5917,7 +5917,7 @@
         <v>106.7108886474994</v>
       </c>
       <c r="AP2">
-        <v>-10.95931300684882</v>
+        <v>-10.95931300684886</v>
       </c>
       <c r="AQ2">
         <v>-108.7637340185421</v>
@@ -5967,40 +5967,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046424210019893E-09</v>
+        <v>1.04641915280584E-09</v>
       </c>
       <c r="O3">
-        <v>4.66984322064254E-10</v>
+        <v>4.669930888394112E-10</v>
       </c>
       <c r="P3">
-        <v>5.622553552651437E-11</v>
+        <v>5.622026320815689E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046420335503456E-09</v>
+        <v>-1.046412470088256E-09</v>
       </c>
       <c r="R3">
-        <v>-4.669892549867911E-10</v>
+        <v>-4.670026356630727E-10</v>
       </c>
       <c r="S3">
-        <v>-5.622170159225778E-11</v>
+        <v>-5.621451496197186E-11</v>
       </c>
       <c r="T3">
-        <v>-4.743189602826046E-10</v>
+        <v>-4.743142501766564E-10</v>
       </c>
       <c r="U3">
-        <v>7.419093789612969E-10</v>
+        <v>7.418969553593428E-10</v>
       </c>
       <c r="V3">
-        <v>-9.790736096173733E-10</v>
+        <v>-9.790647466373911E-10</v>
       </c>
       <c r="W3">
-        <v>4.743197023495281E-10</v>
+        <v>4.743256408824022E-10</v>
       </c>
       <c r="X3">
-        <v>-7.419065224685968E-10</v>
+        <v>-7.418972540942576E-10</v>
       </c>
       <c r="Y3">
-        <v>9.790695377280641E-10</v>
+        <v>9.790716953092615E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6021,25 +6021,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6185866318650233</v>
+        <v>0.6185866318650238</v>
       </c>
       <c r="AH3">
-        <v>0.9439982598854053</v>
+        <v>0.9439982598854049</v>
       </c>
       <c r="AI3">
-        <v>1.056026550177472</v>
+        <v>1.056026550177473</v>
       </c>
       <c r="AJ3">
-        <v>0.6185866318618189</v>
+        <v>0.6185866318618196</v>
       </c>
       <c r="AK3">
-        <v>0.9439982598799983</v>
+        <v>0.9439982598799977</v>
       </c>
       <c r="AL3">
         <v>1.056026550181367</v>
       </c>
       <c r="AM3">
-        <v>-10.95931300587851</v>
+        <v>-10.95931300587856</v>
       </c>
       <c r="AN3">
         <v>-108.7637340185952</v>
@@ -6048,7 +6048,7 @@
         <v>106.7108886483352</v>
       </c>
       <c r="AP3">
-        <v>-10.95931300684882</v>
+        <v>-10.95931300684886</v>
       </c>
       <c r="AQ3">
         <v>-108.7637340185421</v>
@@ -6098,40 +6098,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.0464104746456E-09</v>
+        <v>1.04641915280584E-09</v>
       </c>
       <c r="O4">
-        <v>4.66984322064254E-10</v>
+        <v>4.669930888394112E-10</v>
       </c>
       <c r="P4">
-        <v>5.619582654236923E-11</v>
+        <v>5.622026320815689E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046399732442017E-09</v>
+        <v>-1.046412470088256E-09</v>
       </c>
       <c r="R4">
-        <v>-4.669934890050044E-10</v>
+        <v>-4.670026356630727E-10</v>
       </c>
       <c r="S4">
-        <v>-5.619199260811277E-11</v>
+        <v>-5.621451496197186E-11</v>
       </c>
       <c r="T4">
-        <v>-4.743282391077434E-10</v>
+        <v>-4.743142501766564E-10</v>
       </c>
       <c r="U4">
-        <v>7.419093789612969E-10</v>
+        <v>7.418969553593428E-10</v>
       </c>
       <c r="V4">
-        <v>-9.790616372072656E-10</v>
+        <v>-9.790647466373911E-10</v>
       </c>
       <c r="W4">
-        <v>4.743336205872361E-10</v>
+        <v>4.743256408824022E-10</v>
       </c>
       <c r="X4">
-        <v>-7.419050840811324E-10</v>
+        <v>-7.418972540942576E-10</v>
       </c>
       <c r="Y4">
-        <v>9.790575653179566E-10</v>
+        <v>9.790716953092615E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6152,25 +6152,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650238</v>
       </c>
       <c r="AH4">
-        <v>0.9439982598854053</v>
+        <v>0.9439982598854049</v>
       </c>
       <c r="AI4">
-        <v>1.056026550177472</v>
+        <v>1.056026550177473</v>
       </c>
       <c r="AJ4">
-        <v>0.6185866318618189</v>
+        <v>0.6185866318618196</v>
       </c>
       <c r="AK4">
-        <v>0.9439982598799983</v>
+        <v>0.9439982598799977</v>
       </c>
       <c r="AL4">
         <v>1.056026550181367</v>
       </c>
       <c r="AM4">
-        <v>-10.95931300587851</v>
+        <v>-10.95931300587856</v>
       </c>
       <c r="AN4">
         <v>-108.7637340185952</v>
@@ -6179,7 +6179,7 @@
         <v>106.7108886483352</v>
       </c>
       <c r="AP4">
-        <v>-10.95931300684882</v>
+        <v>-10.95931300684886</v>
       </c>
       <c r="AQ4">
         <v>-108.7637340185421</v>
@@ -6601,40 +6601,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.139249241493579E-09</v>
+        <v>-3.139228873370212E-09</v>
       </c>
       <c r="O2">
-        <v>-1.400995387478714E-09</v>
+        <v>-1.401003394488048E-09</v>
       </c>
       <c r="P2">
-        <v>-1.686219796577501E-10</v>
+        <v>-1.686454538605381E-10</v>
       </c>
       <c r="Q2">
-        <v>3.139248476705073E-09</v>
+        <v>3.139228688508274E-09</v>
       </c>
       <c r="R2">
-        <v>1.400989016195619E-09</v>
+        <v>1.400996724466223E-09</v>
       </c>
       <c r="S2">
-        <v>1.686291663183064E-10</v>
+        <v>1.686526405210941E-10</v>
       </c>
       <c r="T2">
-        <v>1.422985183143338E-09</v>
+        <v>1.422967061913273E-09</v>
       </c>
       <c r="U2">
-        <v>-2.225727893405556E-09</v>
+        <v>-2.225706282573443E-09</v>
       </c>
       <c r="V2">
-        <v>2.937195445690233E-09</v>
+        <v>2.937177952385466E-09</v>
       </c>
       <c r="W2">
-        <v>-1.422977573267154E-09</v>
+        <v>-1.422960310497985E-09</v>
       </c>
       <c r="X2">
-        <v>2.225726515910573E-09</v>
+        <v>2.225714451905484E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.937193288074692E-09</v>
+        <v>-2.937175794769925E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -6655,25 +6655,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6185866318522062</v>
+        <v>0.6185866318522069</v>
       </c>
       <c r="AH2">
-        <v>0.9439982598637769</v>
+        <v>0.9439982598637765</v>
       </c>
       <c r="AI2">
         <v>1.056026550193052</v>
       </c>
       <c r="AJ2">
-        <v>0.6185866318618189</v>
+        <v>0.6185866318618196</v>
       </c>
       <c r="AK2">
-        <v>0.9439982598799983</v>
+        <v>0.9439982598799977</v>
       </c>
       <c r="AL2">
         <v>1.056026550181367</v>
       </c>
       <c r="AM2">
-        <v>-10.95931300975977</v>
+        <v>-10.95931300975979</v>
       </c>
       <c r="AN2">
         <v>-108.7637340183826</v>
@@ -6682,7 +6682,7 @@
         <v>106.7108886474994</v>
       </c>
       <c r="AP2">
-        <v>-10.95931300684882</v>
+        <v>-10.95931300684886</v>
       </c>
       <c r="AQ2">
         <v>-108.7637340185421</v>
@@ -6732,40 +6732,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046424210019893E-09</v>
+        <v>1.04641915280584E-09</v>
       </c>
       <c r="O3">
-        <v>4.66984322064254E-10</v>
+        <v>4.669930888394112E-10</v>
       </c>
       <c r="P3">
-        <v>5.622553552651437E-11</v>
+        <v>5.622026320815689E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046420335503456E-09</v>
+        <v>-1.046412470088256E-09</v>
       </c>
       <c r="R3">
-        <v>-4.669892549867911E-10</v>
+        <v>-4.670026356630727E-10</v>
       </c>
       <c r="S3">
-        <v>-5.622170159225778E-11</v>
+        <v>-5.621451496197186E-11</v>
       </c>
       <c r="T3">
-        <v>-4.743189602826046E-10</v>
+        <v>-4.743142501766564E-10</v>
       </c>
       <c r="U3">
-        <v>7.419093789612969E-10</v>
+        <v>7.418969553593428E-10</v>
       </c>
       <c r="V3">
-        <v>-9.790736096173733E-10</v>
+        <v>-9.790647466373911E-10</v>
       </c>
       <c r="W3">
-        <v>4.743197023495281E-10</v>
+        <v>4.743256408824022E-10</v>
       </c>
       <c r="X3">
-        <v>-7.419065224685968E-10</v>
+        <v>-7.418972540942576E-10</v>
       </c>
       <c r="Y3">
-        <v>9.790695377280641E-10</v>
+        <v>9.790716953092615E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6786,25 +6786,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6185866318650233</v>
+        <v>0.6185866318650238</v>
       </c>
       <c r="AH3">
-        <v>0.9439982598854053</v>
+        <v>0.9439982598854049</v>
       </c>
       <c r="AI3">
-        <v>1.056026550177472</v>
+        <v>1.056026550177473</v>
       </c>
       <c r="AJ3">
-        <v>0.6185866318618189</v>
+        <v>0.6185866318618196</v>
       </c>
       <c r="AK3">
-        <v>0.9439982598799983</v>
+        <v>0.9439982598799977</v>
       </c>
       <c r="AL3">
         <v>1.056026550181367</v>
       </c>
       <c r="AM3">
-        <v>-10.95931300587851</v>
+        <v>-10.95931300587856</v>
       </c>
       <c r="AN3">
         <v>-108.7637340185952</v>
@@ -6813,7 +6813,7 @@
         <v>106.7108886483352</v>
       </c>
       <c r="AP3">
-        <v>-10.95931300684882</v>
+        <v>-10.95931300684886</v>
       </c>
       <c r="AQ3">
         <v>-108.7637340185421</v>
@@ -6863,40 +6863,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.0464104746456E-09</v>
+        <v>1.04641915280584E-09</v>
       </c>
       <c r="O4">
-        <v>4.66984322064254E-10</v>
+        <v>4.669930888394112E-10</v>
       </c>
       <c r="P4">
-        <v>5.619582654236923E-11</v>
+        <v>5.622026320815689E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046399732442017E-09</v>
+        <v>-1.046412470088256E-09</v>
       </c>
       <c r="R4">
-        <v>-4.669934890050044E-10</v>
+        <v>-4.670026356630727E-10</v>
       </c>
       <c r="S4">
-        <v>-5.619199260811277E-11</v>
+        <v>-5.621451496197186E-11</v>
       </c>
       <c r="T4">
-        <v>-4.743282391077434E-10</v>
+        <v>-4.743142501766564E-10</v>
       </c>
       <c r="U4">
-        <v>7.419093789612969E-10</v>
+        <v>7.418969553593428E-10</v>
       </c>
       <c r="V4">
-        <v>-9.790616372072656E-10</v>
+        <v>-9.790647466373911E-10</v>
       </c>
       <c r="W4">
-        <v>4.743336205872361E-10</v>
+        <v>4.743256408824022E-10</v>
       </c>
       <c r="X4">
-        <v>-7.419050840811324E-10</v>
+        <v>-7.418972540942576E-10</v>
       </c>
       <c r="Y4">
-        <v>9.790575653179566E-10</v>
+        <v>9.790716953092615E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6917,25 +6917,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650238</v>
       </c>
       <c r="AH4">
-        <v>0.9439982598854053</v>
+        <v>0.9439982598854049</v>
       </c>
       <c r="AI4">
-        <v>1.056026550177472</v>
+        <v>1.056026550177473</v>
       </c>
       <c r="AJ4">
-        <v>0.6185866318618189</v>
+        <v>0.6185866318618196</v>
       </c>
       <c r="AK4">
-        <v>0.9439982598799983</v>
+        <v>0.9439982598799977</v>
       </c>
       <c r="AL4">
         <v>1.056026550181367</v>
       </c>
       <c r="AM4">
-        <v>-10.95931300587851</v>
+        <v>-10.95931300587856</v>
       </c>
       <c r="AN4">
         <v>-108.7637340185952</v>
@@ -6944,7 +6944,7 @@
         <v>106.7108886483352</v>
       </c>
       <c r="AP4">
-        <v>-10.95931300684882</v>
+        <v>-10.95931300684886</v>
       </c>
       <c r="AQ4">
         <v>-108.7637340185421</v>
@@ -7141,40 +7141,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.436062641365466E-09</v>
+        <v>-2.436065382057771E-09</v>
       </c>
       <c r="O2">
-        <v>-6.079245531822523E-10</v>
+        <v>-6.079242522442399E-10</v>
       </c>
       <c r="P2">
-        <v>-6.100898731686337E-10</v>
+        <v>-6.100927081837922E-10</v>
       </c>
       <c r="Q2">
-        <v>2.436064210014149E-09</v>
+        <v>2.436060678000104E-09</v>
       </c>
       <c r="R2">
-        <v>6.079196663082444E-10</v>
+        <v>6.079242523455977E-10</v>
       </c>
       <c r="S2">
-        <v>6.100919241635188E-10</v>
+        <v>6.10090657391621E-10</v>
       </c>
       <c r="T2">
-        <v>-2.481065582971287E-12</v>
+        <v>-2.48655630106115E-12</v>
       </c>
       <c r="U2">
-        <v>-3.186857908134008E-09</v>
+        <v>-3.186845207511976E-09</v>
       </c>
       <c r="V2">
-        <v>3.185578342485843E-09</v>
+        <v>3.185582052212086E-09</v>
       </c>
       <c r="W2">
-        <v>2.481066889241052E-12</v>
+        <v>2.486161279784067E-12</v>
       </c>
       <c r="X2">
-        <v>3.186854589461792E-09</v>
+        <v>3.186845207571872E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.185577950365134E-09</v>
+        <v>-3.185582444213004E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7195,40 +7195,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3310660019364458</v>
+        <v>0.3310660019364456</v>
       </c>
       <c r="AH2">
-        <v>0.8818141464759021</v>
+        <v>0.8818141464759018</v>
       </c>
       <c r="AI2">
-        <v>0.8815929672376953</v>
+        <v>0.8815929672376955</v>
       </c>
       <c r="AJ2">
-        <v>0.3310660019915774</v>
+        <v>0.3310660019915773</v>
       </c>
       <c r="AK2">
-        <v>0.881814146497056</v>
+        <v>0.8818141464970558</v>
       </c>
       <c r="AL2">
         <v>0.881592967226888</v>
       </c>
       <c r="AM2">
-        <v>0.03897125580992354</v>
+        <v>0.038971255809947</v>
       </c>
       <c r="AN2">
         <v>-100.8196771664425</v>
       </c>
       <c r="AO2">
-        <v>100.8224244169423</v>
+        <v>100.8224244169424</v>
       </c>
       <c r="AP2">
-        <v>0.03897126143524871</v>
+        <v>0.0389712614352118</v>
       </c>
       <c r="AQ2">
-        <v>-100.8196771680026</v>
+        <v>-100.8196771680027</v>
       </c>
       <c r="AR2">
-        <v>100.8224244188998</v>
+        <v>100.8224244188999</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -7272,40 +7272,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.120224485230411E-10</v>
+        <v>8.120197056973672E-10</v>
       </c>
       <c r="O3">
-        <v>2.026443137568246E-10</v>
+        <v>2.026496839158054E-10</v>
       </c>
       <c r="P3">
-        <v>2.033640752228862E-10</v>
+        <v>2.033661261164151E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.120271532077597E-10</v>
+        <v>-8.120212736289041E-10</v>
       </c>
       <c r="R3">
-        <v>-2.026409950134519E-10</v>
+        <v>-2.026496839045439E-10</v>
       </c>
       <c r="S3">
-        <v>-2.033620243180967E-10</v>
+        <v>-2.033640752116256E-10</v>
       </c>
       <c r="T3">
-        <v>8.275457819091896E-13</v>
+        <v>8.251915503295199E-13</v>
       </c>
       <c r="U3">
-        <v>1.06227834719343E-09</v>
+        <v>1.062273068157249E-09</v>
       </c>
       <c r="V3">
-        <v>-1.061863549255717E-09</v>
+        <v>-1.061863157194903E-09</v>
       </c>
       <c r="W3">
-        <v>-8.27548955336164E-13</v>
+        <v>-8.255846512051813E-13</v>
       </c>
       <c r="X3">
-        <v>-1.062283234162142E-09</v>
+        <v>-1.062273068150594E-09</v>
       </c>
       <c r="Y3">
-        <v>1.061863941323186E-09</v>
+        <v>1.061863549262372E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7326,25 +7326,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.331066002009955</v>
+        <v>0.3310660020099548</v>
       </c>
       <c r="AH3">
         <v>0.8818141465041071</v>
       </c>
       <c r="AI3">
-        <v>0.8815929672232857</v>
+        <v>0.8815929672232855</v>
       </c>
       <c r="AJ3">
-        <v>0.3310660019915774</v>
+        <v>0.3310660019915773</v>
       </c>
       <c r="AK3">
-        <v>0.881814146497056</v>
+        <v>0.8818141464970558</v>
       </c>
       <c r="AL3">
         <v>0.881592967226888</v>
       </c>
       <c r="AM3">
-        <v>0.0389712633104158</v>
+        <v>0.03897126331035732</v>
       </c>
       <c r="AN3">
         <v>-100.8196771685227</v>
@@ -7353,13 +7353,13 @@
         <v>100.8224244195523</v>
       </c>
       <c r="AP3">
-        <v>0.03897126143524871</v>
+        <v>0.0389712614352118</v>
       </c>
       <c r="AQ3">
-        <v>-100.8196771680026</v>
+        <v>-100.8196771680027</v>
       </c>
       <c r="AR3">
-        <v>100.8224244188998</v>
+        <v>100.8224244188999</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -7403,40 +7403,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.120193120365294E-10</v>
+        <v>8.120197056973672E-10</v>
       </c>
       <c r="O4">
-        <v>2.026474502433363E-10</v>
+        <v>2.026496839158054E-10</v>
       </c>
       <c r="P4">
-        <v>2.033658246450585E-10</v>
+        <v>2.033661261164151E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.120240167212483E-10</v>
+        <v>-8.120212736289041E-10</v>
       </c>
       <c r="R4">
-        <v>-2.026482343537024E-10</v>
+        <v>-2.026496839045439E-10</v>
       </c>
       <c r="S4">
-        <v>-2.033637737402692E-10</v>
+        <v>-2.033640752116256E-10</v>
       </c>
       <c r="T4">
-        <v>8.275436485433257E-13</v>
+        <v>8.251915503295199E-13</v>
       </c>
       <c r="U4">
-        <v>1.062294758608386E-09</v>
+        <v>1.062273068157249E-09</v>
       </c>
       <c r="V4">
-        <v>-1.061850459772921E-09</v>
+        <v>-1.061863157194903E-09</v>
       </c>
       <c r="W4">
-        <v>-8.275468219703959E-13</v>
+        <v>-8.255846512051813E-13</v>
       </c>
       <c r="X4">
-        <v>-1.06229886145547E-09</v>
+        <v>-1.062273068150594E-09</v>
       </c>
       <c r="Y4">
-        <v>1.06185085184039E-09</v>
+        <v>1.061863549262372E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7457,25 +7457,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.331066002009955</v>
+        <v>0.3310660020099548</v>
       </c>
       <c r="AH4">
-        <v>0.8818141465041072</v>
+        <v>0.8818141465041071</v>
       </c>
       <c r="AI4">
-        <v>0.8815929672232857</v>
+        <v>0.8815929672232855</v>
       </c>
       <c r="AJ4">
-        <v>0.3310660019915774</v>
+        <v>0.3310660019915773</v>
       </c>
       <c r="AK4">
-        <v>0.881814146497056</v>
+        <v>0.8818141464970558</v>
       </c>
       <c r="AL4">
         <v>0.881592967226888</v>
       </c>
       <c r="AM4">
-        <v>0.03897126331041629</v>
+        <v>0.03897126331035732</v>
       </c>
       <c r="AN4">
         <v>-100.8196771685227</v>
@@ -7484,13 +7484,13 @@
         <v>100.8224244195523</v>
       </c>
       <c r="AP4">
-        <v>0.03897126143524871</v>
+        <v>0.0389712614352118</v>
       </c>
       <c r="AQ4">
-        <v>-100.8196771680026</v>
+        <v>-100.8196771680027</v>
       </c>
       <c r="AR4">
-        <v>100.8224244188998</v>
+        <v>100.8224244188999</v>
       </c>
     </row>
   </sheetData>
@@ -7681,40 +7681,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.436062641365466E-09</v>
+        <v>-2.436065382057771E-09</v>
       </c>
       <c r="O2">
-        <v>-6.079245531822523E-10</v>
+        <v>-6.079242522442399E-10</v>
       </c>
       <c r="P2">
-        <v>-6.100898731686337E-10</v>
+        <v>-6.100927081837922E-10</v>
       </c>
       <c r="Q2">
-        <v>2.436064210014149E-09</v>
+        <v>2.436060678000104E-09</v>
       </c>
       <c r="R2">
-        <v>6.079196663082444E-10</v>
+        <v>6.079242523455977E-10</v>
       </c>
       <c r="S2">
-        <v>6.100919241635188E-10</v>
+        <v>6.10090657391621E-10</v>
       </c>
       <c r="T2">
-        <v>-2.481065582971287E-12</v>
+        <v>-2.48655630106115E-12</v>
       </c>
       <c r="U2">
-        <v>-3.186857908134008E-09</v>
+        <v>-3.186845207511976E-09</v>
       </c>
       <c r="V2">
-        <v>3.185578342485843E-09</v>
+        <v>3.185582052212086E-09</v>
       </c>
       <c r="W2">
-        <v>2.481066889241052E-12</v>
+        <v>2.486161279784067E-12</v>
       </c>
       <c r="X2">
-        <v>3.186854589461792E-09</v>
+        <v>3.186845207571872E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.185577950365134E-09</v>
+        <v>-3.185582444213004E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7735,40 +7735,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3310660019364458</v>
+        <v>0.3310660019364456</v>
       </c>
       <c r="AH2">
-        <v>0.8818141464759021</v>
+        <v>0.8818141464759018</v>
       </c>
       <c r="AI2">
-        <v>0.8815929672376953</v>
+        <v>0.8815929672376955</v>
       </c>
       <c r="AJ2">
-        <v>0.3310660019915774</v>
+        <v>0.3310660019915773</v>
       </c>
       <c r="AK2">
-        <v>0.881814146497056</v>
+        <v>0.8818141464970558</v>
       </c>
       <c r="AL2">
         <v>0.881592967226888</v>
       </c>
       <c r="AM2">
-        <v>0.03897125580992354</v>
+        <v>0.038971255809947</v>
       </c>
       <c r="AN2">
         <v>-100.8196771664425</v>
       </c>
       <c r="AO2">
-        <v>100.8224244169423</v>
+        <v>100.8224244169424</v>
       </c>
       <c r="AP2">
-        <v>0.03897126143524871</v>
+        <v>0.0389712614352118</v>
       </c>
       <c r="AQ2">
-        <v>-100.8196771680026</v>
+        <v>-100.8196771680027</v>
       </c>
       <c r="AR2">
-        <v>100.8224244188998</v>
+        <v>100.8224244188999</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -7812,40 +7812,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.120224485230411E-10</v>
+        <v>8.120197056973672E-10</v>
       </c>
       <c r="O3">
-        <v>2.026443137568246E-10</v>
+        <v>2.026496839158054E-10</v>
       </c>
       <c r="P3">
-        <v>2.033640752228862E-10</v>
+        <v>2.033661261164151E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.120271532077597E-10</v>
+        <v>-8.120212736289041E-10</v>
       </c>
       <c r="R3">
-        <v>-2.026409950134519E-10</v>
+        <v>-2.026496839045439E-10</v>
       </c>
       <c r="S3">
-        <v>-2.033620243180967E-10</v>
+        <v>-2.033640752116256E-10</v>
       </c>
       <c r="T3">
-        <v>8.275457819091896E-13</v>
+        <v>8.251915503295199E-13</v>
       </c>
       <c r="U3">
-        <v>1.06227834719343E-09</v>
+        <v>1.062273068157249E-09</v>
       </c>
       <c r="V3">
-        <v>-1.061863549255717E-09</v>
+        <v>-1.061863157194903E-09</v>
       </c>
       <c r="W3">
-        <v>-8.27548955336164E-13</v>
+        <v>-8.255846512051813E-13</v>
       </c>
       <c r="X3">
-        <v>-1.062283234162142E-09</v>
+        <v>-1.062273068150594E-09</v>
       </c>
       <c r="Y3">
-        <v>1.061863941323186E-09</v>
+        <v>1.061863549262372E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7866,25 +7866,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.331066002009955</v>
+        <v>0.3310660020099548</v>
       </c>
       <c r="AH3">
         <v>0.8818141465041071</v>
       </c>
       <c r="AI3">
-        <v>0.8815929672232857</v>
+        <v>0.8815929672232855</v>
       </c>
       <c r="AJ3">
-        <v>0.3310660019915774</v>
+        <v>0.3310660019915773</v>
       </c>
       <c r="AK3">
-        <v>0.881814146497056</v>
+        <v>0.8818141464970558</v>
       </c>
       <c r="AL3">
         <v>0.881592967226888</v>
       </c>
       <c r="AM3">
-        <v>0.0389712633104158</v>
+        <v>0.03897126331035732</v>
       </c>
       <c r="AN3">
         <v>-100.8196771685227</v>
@@ -7893,13 +7893,13 @@
         <v>100.8224244195523</v>
       </c>
       <c r="AP3">
-        <v>0.03897126143524871</v>
+        <v>0.0389712614352118</v>
       </c>
       <c r="AQ3">
-        <v>-100.8196771680026</v>
+        <v>-100.8196771680027</v>
       </c>
       <c r="AR3">
-        <v>100.8224244188998</v>
+        <v>100.8224244188999</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -7943,40 +7943,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.120193120365294E-10</v>
+        <v>8.120197056973672E-10</v>
       </c>
       <c r="O4">
-        <v>2.026474502433363E-10</v>
+        <v>2.026496839158054E-10</v>
       </c>
       <c r="P4">
-        <v>2.033658246450585E-10</v>
+        <v>2.033661261164151E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.120240167212483E-10</v>
+        <v>-8.120212736289041E-10</v>
       </c>
       <c r="R4">
-        <v>-2.026482343537024E-10</v>
+        <v>-2.026496839045439E-10</v>
       </c>
       <c r="S4">
-        <v>-2.033637737402692E-10</v>
+        <v>-2.033640752116256E-10</v>
       </c>
       <c r="T4">
-        <v>8.275436485433257E-13</v>
+        <v>8.251915503295199E-13</v>
       </c>
       <c r="U4">
-        <v>1.062294758608386E-09</v>
+        <v>1.062273068157249E-09</v>
       </c>
       <c r="V4">
-        <v>-1.061850459772921E-09</v>
+        <v>-1.061863157194903E-09</v>
       </c>
       <c r="W4">
-        <v>-8.275468219703959E-13</v>
+        <v>-8.255846512051813E-13</v>
       </c>
       <c r="X4">
-        <v>-1.06229886145547E-09</v>
+        <v>-1.062273068150594E-09</v>
       </c>
       <c r="Y4">
-        <v>1.06185085184039E-09</v>
+        <v>1.061863549262372E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7997,25 +7997,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.331066002009955</v>
+        <v>0.3310660020099548</v>
       </c>
       <c r="AH4">
-        <v>0.8818141465041072</v>
+        <v>0.8818141465041071</v>
       </c>
       <c r="AI4">
-        <v>0.8815929672232857</v>
+        <v>0.8815929672232855</v>
       </c>
       <c r="AJ4">
-        <v>0.3310660019915774</v>
+        <v>0.3310660019915773</v>
       </c>
       <c r="AK4">
-        <v>0.881814146497056</v>
+        <v>0.8818141464970558</v>
       </c>
       <c r="AL4">
         <v>0.881592967226888</v>
       </c>
       <c r="AM4">
-        <v>0.03897126331041629</v>
+        <v>0.03897126331035732</v>
       </c>
       <c r="AN4">
         <v>-100.8196771685227</v>
@@ -8024,13 +8024,13 @@
         <v>100.8224244195523</v>
       </c>
       <c r="AP4">
-        <v>0.03897126143524871</v>
+        <v>0.0389712614352118</v>
       </c>
       <c r="AQ4">
-        <v>-100.8196771680026</v>
+        <v>-100.8196771680027</v>
       </c>
       <c r="AR4">
-        <v>100.8224244188998</v>
+        <v>100.8224244188999</v>
       </c>
     </row>
   </sheetData>
@@ -8221,40 +8221,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624673671781451E-09</v>
+        <v>-2.624674104096701E-09</v>
       </c>
       <c r="O2">
-        <v>-1.14198504053123E-09</v>
+        <v>-1.141981117627515E-09</v>
       </c>
       <c r="P2">
-        <v>-1.703427595871373E-10</v>
+        <v>-1.703455608917861E-10</v>
       </c>
       <c r="Q2">
-        <v>2.62467562045374E-09</v>
+        <v>2.624672991797315E-09</v>
       </c>
       <c r="R2">
-        <v>1.141982984598483E-09</v>
+        <v>1.14198271222251E-09</v>
       </c>
       <c r="S2">
-        <v>1.70342130282533E-10</v>
+        <v>1.703412170479552E-10</v>
       </c>
       <c r="T2">
-        <v>1.121953767199705E-09</v>
+        <v>1.121944714630534E-09</v>
       </c>
       <c r="U2">
-        <v>-1.951308007410817E-09</v>
+        <v>-1.951294337464567E-09</v>
       </c>
       <c r="V2">
-        <v>2.512261368813236E-09</v>
+        <v>2.512262911404505E-09</v>
       </c>
       <c r="W2">
-        <v>-1.12195381476152E-09</v>
+        <v>-1.121947111146415E-09</v>
       </c>
       <c r="X2">
-        <v>1.95130333884967E-09</v>
+        <v>1.951295953189441E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.512259196834499E-09</v>
+        <v>-2.512264170087105E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8275,34 +8275,34 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5411436570099365</v>
+        <v>0.5411436570099363</v>
       </c>
       <c r="AH2">
-        <v>0.8572501491769242</v>
+        <v>0.8572501491769241</v>
       </c>
       <c r="AI2">
-        <v>0.9547462544936437</v>
+        <v>0.9547462544936439</v>
       </c>
       <c r="AJ2">
-        <v>0.5411436570370807</v>
+        <v>0.5411436570370804</v>
       </c>
       <c r="AK2">
-        <v>0.8572501491969717</v>
+        <v>0.8572501491969716</v>
       </c>
       <c r="AL2">
-        <v>0.9547462544833361</v>
+        <v>0.9547462544833362</v>
       </c>
       <c r="AM2">
-        <v>-10.86424712076569</v>
+        <v>-10.86424712076568</v>
       </c>
       <c r="AN2">
-        <v>-108.0574514187701</v>
+        <v>-108.0574514187702</v>
       </c>
       <c r="AO2">
-        <v>106.1597915285524</v>
+        <v>106.1597915285525</v>
       </c>
       <c r="AP2">
-        <v>-10.86424711684952</v>
+        <v>-10.86424711684954</v>
       </c>
       <c r="AQ2">
         <v>-108.0574514195154</v>
@@ -8352,40 +8352,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.748925802035608E-10</v>
+        <v>8.748938389169393E-10</v>
       </c>
       <c r="O3">
-        <v>3.806587432023416E-10</v>
+        <v>3.806662333237782E-10</v>
       </c>
       <c r="P3">
-        <v>5.678139703645407E-11</v>
+        <v>5.677750975782808E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.748908732919818E-10</v>
+        <v>-8.748949514015162E-10</v>
       </c>
       <c r="R3">
-        <v>-3.806585752817894E-10</v>
+        <v>-3.806614496892634E-10</v>
       </c>
       <c r="S3">
-        <v>-5.678311236133549E-11</v>
+        <v>-5.677859572602007E-11</v>
       </c>
       <c r="T3">
-        <v>-3.739865893970452E-10</v>
+        <v>-3.73986830972564E-10</v>
       </c>
       <c r="U3">
-        <v>6.50426994079234E-10</v>
+        <v>6.504352298888805E-10</v>
       </c>
       <c r="V3">
-        <v>-8.374234570807912E-10</v>
+        <v>-8.374222291678675E-10</v>
       </c>
       <c r="W3">
-        <v>3.739852830124136E-10</v>
+        <v>3.739844343472454E-10</v>
       </c>
       <c r="X3">
-        <v>-6.504281166012063E-10</v>
+        <v>-6.50430382803176E-10</v>
       </c>
       <c r="Y3">
-        <v>8.374253143538245E-10</v>
+        <v>8.374219144929429E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8412,28 +8412,28 @@
         <v>0.8572501492036539</v>
       </c>
       <c r="AI3">
-        <v>0.9547462544799002</v>
+        <v>0.9547462544799001</v>
       </c>
       <c r="AJ3">
-        <v>0.5411436570370807</v>
+        <v>0.5411436570370804</v>
       </c>
       <c r="AK3">
-        <v>0.8572501491969717</v>
+        <v>0.8572501491969716</v>
       </c>
       <c r="AL3">
-        <v>0.9547462544833361</v>
+        <v>0.9547462544833362</v>
       </c>
       <c r="AM3">
-        <v>-10.86424711554411</v>
+        <v>-10.86424711554414</v>
       </c>
       <c r="AN3">
-        <v>-108.0574514197637</v>
+        <v>-108.0574514197638</v>
       </c>
       <c r="AO3">
         <v>106.1597915301922</v>
       </c>
       <c r="AP3">
-        <v>-10.86424711684952</v>
+        <v>-10.86424711684954</v>
       </c>
       <c r="AQ3">
         <v>-108.0574514195154</v>
@@ -8483,40 +8483,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.748870621990083E-10</v>
+        <v>8.748938389169393E-10</v>
       </c>
       <c r="O4">
-        <v>3.806651213739787E-10</v>
+        <v>3.806662333237782E-10</v>
       </c>
       <c r="P4">
-        <v>5.677762089631733E-11</v>
+        <v>5.677750975782808E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.748858384384665E-10</v>
+        <v>-8.748949514015162E-10</v>
       </c>
       <c r="R4">
-        <v>-3.80667177353025E-10</v>
+        <v>-3.806614496892634E-10</v>
       </c>
       <c r="S4">
-        <v>-5.677933622119888E-11</v>
+        <v>-5.677859572602007E-11</v>
       </c>
       <c r="T4">
-        <v>-3.739881405217293E-10</v>
+        <v>-3.73986830972564E-10</v>
       </c>
       <c r="U4">
-        <v>6.504334568556135E-10</v>
+        <v>6.504352298888805E-10</v>
       </c>
       <c r="V4">
-        <v>-8.374104253930436E-10</v>
+        <v>-8.374222291678675E-10</v>
       </c>
       <c r="W4">
-        <v>3.739843167103398E-10</v>
+        <v>3.739844343472454E-10</v>
       </c>
       <c r="X4">
-        <v>-6.504381254441202E-10</v>
+        <v>-6.50430382803176E-10</v>
       </c>
       <c r="Y4">
-        <v>8.374122826660767E-10</v>
+        <v>8.374219144929429E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -8537,34 +8537,34 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.5411436570461287</v>
+        <v>0.5411436570461288</v>
       </c>
       <c r="AH4">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036539</v>
       </c>
       <c r="AI4">
-        <v>0.9547462544799004</v>
+        <v>0.9547462544799001</v>
       </c>
       <c r="AJ4">
-        <v>0.5411436570370807</v>
+        <v>0.5411436570370804</v>
       </c>
       <c r="AK4">
-        <v>0.8572501491969717</v>
+        <v>0.8572501491969716</v>
       </c>
       <c r="AL4">
-        <v>0.9547462544833361</v>
+        <v>0.9547462544833362</v>
       </c>
       <c r="AM4">
-        <v>-10.86424711554411</v>
+        <v>-10.86424711554414</v>
       </c>
       <c r="AN4">
-        <v>-108.0574514197637</v>
+        <v>-108.0574514197638</v>
       </c>
       <c r="AO4">
         <v>106.1597915301922</v>
       </c>
       <c r="AP4">
-        <v>-10.86424711684952</v>
+        <v>-10.86424711684954</v>
       </c>
       <c r="AQ4">
         <v>-108.0574514195154</v>
@@ -8761,40 +8761,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624673671781451E-09</v>
+        <v>-2.624674104096701E-09</v>
       </c>
       <c r="O2">
-        <v>-1.14198504053123E-09</v>
+        <v>-1.141981117627515E-09</v>
       </c>
       <c r="P2">
-        <v>-1.703427595871373E-10</v>
+        <v>-1.703455608917861E-10</v>
       </c>
       <c r="Q2">
-        <v>2.62467562045374E-09</v>
+        <v>2.624672991797315E-09</v>
       </c>
       <c r="R2">
-        <v>1.141982984598483E-09</v>
+        <v>1.14198271222251E-09</v>
       </c>
       <c r="S2">
-        <v>1.70342130282533E-10</v>
+        <v>1.703412170479552E-10</v>
       </c>
       <c r="T2">
-        <v>1.121953767199705E-09</v>
+        <v>1.121944714630534E-09</v>
       </c>
       <c r="U2">
-        <v>-1.951308007410817E-09</v>
+        <v>-1.951294337464567E-09</v>
       </c>
       <c r="V2">
-        <v>2.512261368813236E-09</v>
+        <v>2.512262911404505E-09</v>
       </c>
       <c r="W2">
-        <v>-1.12195381476152E-09</v>
+        <v>-1.121947111146415E-09</v>
       </c>
       <c r="X2">
-        <v>1.95130333884967E-09</v>
+        <v>1.951295953189441E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.512259196834499E-09</v>
+        <v>-2.512264170087105E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8815,34 +8815,34 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5411436570099365</v>
+        <v>0.5411436570099363</v>
       </c>
       <c r="AH2">
-        <v>0.8572501491769242</v>
+        <v>0.8572501491769241</v>
       </c>
       <c r="AI2">
-        <v>0.9547462544936437</v>
+        <v>0.9547462544936439</v>
       </c>
       <c r="AJ2">
-        <v>0.5411436570370807</v>
+        <v>0.5411436570370804</v>
       </c>
       <c r="AK2">
-        <v>0.8572501491969717</v>
+        <v>0.8572501491969716</v>
       </c>
       <c r="AL2">
-        <v>0.9547462544833361</v>
+        <v>0.9547462544833362</v>
       </c>
       <c r="AM2">
-        <v>-10.86424712076569</v>
+        <v>-10.86424712076568</v>
       </c>
       <c r="AN2">
-        <v>-108.0574514187701</v>
+        <v>-108.0574514187702</v>
       </c>
       <c r="AO2">
-        <v>106.1597915285524</v>
+        <v>106.1597915285525</v>
       </c>
       <c r="AP2">
-        <v>-10.86424711684952</v>
+        <v>-10.86424711684954</v>
       </c>
       <c r="AQ2">
         <v>-108.0574514195154</v>
@@ -8892,40 +8892,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.748925802035608E-10</v>
+        <v>8.748938389169393E-10</v>
       </c>
       <c r="O3">
-        <v>3.806587432023416E-10</v>
+        <v>3.806662333237782E-10</v>
       </c>
       <c r="P3">
-        <v>5.678139703645407E-11</v>
+        <v>5.677750975782808E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.748908732919818E-10</v>
+        <v>-8.748949514015162E-10</v>
       </c>
       <c r="R3">
-        <v>-3.806585752817894E-10</v>
+        <v>-3.806614496892634E-10</v>
       </c>
       <c r="S3">
-        <v>-5.678311236133549E-11</v>
+        <v>-5.677859572602007E-11</v>
       </c>
       <c r="T3">
-        <v>-3.739865893970452E-10</v>
+        <v>-3.73986830972564E-10</v>
       </c>
       <c r="U3">
-        <v>6.50426994079234E-10</v>
+        <v>6.504352298888805E-10</v>
       </c>
       <c r="V3">
-        <v>-8.374234570807912E-10</v>
+        <v>-8.374222291678675E-10</v>
       </c>
       <c r="W3">
-        <v>3.739852830124136E-10</v>
+        <v>3.739844343472454E-10</v>
       </c>
       <c r="X3">
-        <v>-6.504281166012063E-10</v>
+        <v>-6.50430382803176E-10</v>
       </c>
       <c r="Y3">
-        <v>8.374253143538245E-10</v>
+        <v>8.374219144929429E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8952,28 +8952,28 @@
         <v>0.8572501492036539</v>
       </c>
       <c r="AI3">
-        <v>0.9547462544799002</v>
+        <v>0.9547462544799001</v>
       </c>
       <c r="AJ3">
-        <v>0.5411436570370807</v>
+        <v>0.5411436570370804</v>
       </c>
       <c r="AK3">
-        <v>0.8572501491969717</v>
+        <v>0.8572501491969716</v>
       </c>
       <c r="AL3">
-        <v>0.9547462544833361</v>
+        <v>0.9547462544833362</v>
       </c>
       <c r="AM3">
-        <v>-10.86424711554411</v>
+        <v>-10.86424711554414</v>
       </c>
       <c r="AN3">
-        <v>-108.0574514197637</v>
+        <v>-108.0574514197638</v>
       </c>
       <c r="AO3">
         <v>106.1597915301922</v>
       </c>
       <c r="AP3">
-        <v>-10.86424711684952</v>
+        <v>-10.86424711684954</v>
       </c>
       <c r="AQ3">
         <v>-108.0574514195154</v>
@@ -9023,40 +9023,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.748870621990083E-10</v>
+        <v>8.748938389169393E-10</v>
       </c>
       <c r="O4">
-        <v>3.806651213739787E-10</v>
+        <v>3.806662333237782E-10</v>
       </c>
       <c r="P4">
-        <v>5.677762089631733E-11</v>
+        <v>5.677750975782808E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.748858384384665E-10</v>
+        <v>-8.748949514015162E-10</v>
       </c>
       <c r="R4">
-        <v>-3.80667177353025E-10</v>
+        <v>-3.806614496892634E-10</v>
       </c>
       <c r="S4">
-        <v>-5.677933622119888E-11</v>
+        <v>-5.677859572602007E-11</v>
       </c>
       <c r="T4">
-        <v>-3.739881405217293E-10</v>
+        <v>-3.73986830972564E-10</v>
       </c>
       <c r="U4">
-        <v>6.504334568556135E-10</v>
+        <v>6.504352298888805E-10</v>
       </c>
       <c r="V4">
-        <v>-8.374104253930436E-10</v>
+        <v>-8.374222291678675E-10</v>
       </c>
       <c r="W4">
-        <v>3.739843167103398E-10</v>
+        <v>3.739844343472454E-10</v>
       </c>
       <c r="X4">
-        <v>-6.504381254441202E-10</v>
+        <v>-6.50430382803176E-10</v>
       </c>
       <c r="Y4">
-        <v>8.374122826660767E-10</v>
+        <v>8.374219144929429E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9077,34 +9077,34 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.5411436570461287</v>
+        <v>0.5411436570461288</v>
       </c>
       <c r="AH4">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036539</v>
       </c>
       <c r="AI4">
-        <v>0.9547462544799004</v>
+        <v>0.9547462544799001</v>
       </c>
       <c r="AJ4">
-        <v>0.5411436570370807</v>
+        <v>0.5411436570370804</v>
       </c>
       <c r="AK4">
-        <v>0.8572501491969717</v>
+        <v>0.8572501491969716</v>
       </c>
       <c r="AL4">
-        <v>0.9547462544833361</v>
+        <v>0.9547462544833362</v>
       </c>
       <c r="AM4">
-        <v>-10.86424711554411</v>
+        <v>-10.86424711554414</v>
       </c>
       <c r="AN4">
-        <v>-108.0574514197637</v>
+        <v>-108.0574514197638</v>
       </c>
       <c r="AO4">
         <v>106.1597915301922</v>
       </c>
       <c r="AP4">
-        <v>-10.86424711684952</v>
+        <v>-10.86424711684954</v>
       </c>
       <c r="AQ4">
         <v>-108.0574514195154</v>
@@ -9301,40 +9301,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.966639475340142E-09</v>
+        <v>-2.966625620995599E-09</v>
       </c>
       <c r="O2">
-        <v>-7.428100953978882E-10</v>
+        <v>-7.428048957258337E-10</v>
       </c>
       <c r="P2">
-        <v>-7.404957899589492E-10</v>
+        <v>-7.405027186922639E-10</v>
       </c>
       <c r="Q2">
-        <v>2.966618695448574E-09</v>
+        <v>2.966604837981954E-09</v>
       </c>
       <c r="R2">
-        <v>7.42817020932976E-10</v>
+        <v>7.428100927200156E-10</v>
       </c>
       <c r="S2">
-        <v>7.404992516479318E-10</v>
+        <v>7.40499255810698E-10</v>
       </c>
       <c r="T2">
-        <v>-2.626569805740183E-12</v>
+        <v>-2.630028968932105E-12</v>
       </c>
       <c r="U2">
-        <v>3.8300719243171E-09</v>
+        <v>3.830056340911312E-09</v>
       </c>
       <c r="V2">
-        <v>-3.831381746131183E-09</v>
+        <v>-3.831374821560636E-09</v>
       </c>
       <c r="W2">
-        <v>2.626563634440095E-12</v>
+        <v>2.640412775520451E-12</v>
       </c>
       <c r="X2">
-        <v>-3.830066726742767E-09</v>
+        <v>-3.830061533835213E-09</v>
       </c>
       <c r="Y2">
-        <v>3.831388674328028E-09</v>
+        <v>3.831374821024163E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9355,25 +9355,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7311297291053342</v>
+        <v>0.7311297291053347</v>
       </c>
       <c r="AH2">
         <v>0.3655648643427193</v>
       </c>
       <c r="AI2">
-        <v>0.3655648647626212</v>
+        <v>0.3655648647626211</v>
       </c>
       <c r="AJ2">
-        <v>0.7311297291211749</v>
+        <v>0.7311297291211754</v>
       </c>
       <c r="AK2">
-        <v>0.3655648643042824</v>
+        <v>0.3655648643042825</v>
       </c>
       <c r="AL2">
-        <v>0.3655648648168983</v>
+        <v>0.365564864816898</v>
       </c>
       <c r="AM2">
-        <v>0.01721676665950743</v>
+        <v>0.01721676665947008</v>
       </c>
       <c r="AN2">
         <v>-179.982783233704</v>
@@ -9382,7 +9382,7 @@
         <v>-179.9827832329748</v>
       </c>
       <c r="AP2">
-        <v>0.01721676806546866</v>
+        <v>0.01721676806541719</v>
       </c>
       <c r="AQ2">
         <v>-179.9827832258906</v>
@@ -9432,37 +9432,37 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.888521185342125E-10</v>
+        <v>9.88865968715989E-10</v>
       </c>
       <c r="O3">
-        <v>2.476010550584898E-10</v>
+        <v>2.475993239158557E-10</v>
       </c>
       <c r="P3">
-        <v>2.46831928102444E-10</v>
+        <v>2.468388568357586E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.888590451790054E-10</v>
+        <v>-9.888832863793632E-10</v>
       </c>
       <c r="R3">
-        <v>-2.476010544887874E-10</v>
+        <v>-2.475941273165196E-10</v>
       </c>
       <c r="S3">
-        <v>-2.468423180309627E-10</v>
+        <v>-2.468423180309622E-10</v>
       </c>
       <c r="T3">
-        <v>8.755149754202673E-13</v>
+        <v>8.85909116078665E-13</v>
       </c>
       <c r="U3">
-        <v>-1.276686024140881E-09</v>
+        <v>-1.276687756324207E-09</v>
       </c>
       <c r="V3">
-        <v>1.277134175586426E-09</v>
+        <v>1.277127251015877E-09</v>
       </c>
       <c r="W3">
-        <v>-8.755170487104773E-13</v>
+        <v>-8.824509854825965E-13</v>
       </c>
       <c r="X3">
-        <v>1.276684292533899E-09</v>
+        <v>1.276682562952304E-09</v>
       </c>
       <c r="Y3">
         <v>-1.277134178652475E-09</v>
@@ -9486,25 +9486,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7311297291264544</v>
+        <v>0.7311297291264552</v>
       </c>
       <c r="AH3">
-        <v>0.3655648642914708</v>
+        <v>0.3655648642914706</v>
       </c>
       <c r="AI3">
-        <v>0.3655648648349912</v>
+        <v>0.3655648648349906</v>
       </c>
       <c r="AJ3">
-        <v>0.7311297291211749</v>
+        <v>0.7311297291211754</v>
       </c>
       <c r="AK3">
-        <v>0.3655648643042824</v>
+        <v>0.3655648643042825</v>
       </c>
       <c r="AL3">
-        <v>0.3655648648168983</v>
+        <v>0.365564864816898</v>
       </c>
       <c r="AM3">
-        <v>0.01721676853411538</v>
+        <v>0.01721676853407039</v>
       </c>
       <c r="AN3">
         <v>-179.9827832232861</v>
@@ -9513,7 +9513,7 @@
         <v>-179.9827832396435</v>
       </c>
       <c r="AP3">
-        <v>0.01721676806546866</v>
+        <v>0.01721676806541719</v>
       </c>
       <c r="AQ3">
         <v>-179.9827832258906</v>
@@ -9563,40 +9563,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.888521206155972E-10</v>
+        <v>9.88865968715989E-10</v>
       </c>
       <c r="O4">
-        <v>2.476010550584897E-10</v>
+        <v>2.475993239158557E-10</v>
       </c>
       <c r="P4">
-        <v>2.468457793249232E-10</v>
+        <v>2.468388568357586E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.888590472603902E-10</v>
+        <v>-9.888832863793632E-10</v>
       </c>
       <c r="R4">
-        <v>-2.475941278368659E-10</v>
+        <v>-2.475941273165196E-10</v>
       </c>
       <c r="S4">
-        <v>-2.468492446828939E-10</v>
+        <v>-2.468423180309622E-10</v>
       </c>
       <c r="T4">
-        <v>8.685883234939888E-13</v>
+        <v>8.85909116078665E-13</v>
       </c>
       <c r="U4">
-        <v>-1.276686024140881E-09</v>
+        <v>-1.276687756324207E-09</v>
       </c>
       <c r="V4">
-        <v>1.277141106401126E-09</v>
+        <v>1.277127251015877E-09</v>
       </c>
       <c r="W4">
-        <v>-8.685903967841902E-13</v>
+        <v>-8.824509854825965E-13</v>
       </c>
       <c r="X4">
-        <v>1.276684294615284E-09</v>
+        <v>1.276682562952304E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.277134180733859E-09</v>
+        <v>-1.277134178652475E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9617,25 +9617,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7311297291264544</v>
+        <v>0.7311297291264552</v>
       </c>
       <c r="AH4">
-        <v>0.3655648642914707</v>
+        <v>0.3655648642914706</v>
       </c>
       <c r="AI4">
-        <v>0.3655648648349913</v>
+        <v>0.3655648648349906</v>
       </c>
       <c r="AJ4">
-        <v>0.7311297291211749</v>
+        <v>0.7311297291211754</v>
       </c>
       <c r="AK4">
-        <v>0.3655648643042824</v>
+        <v>0.3655648643042825</v>
       </c>
       <c r="AL4">
-        <v>0.3655648648168983</v>
+        <v>0.365564864816898</v>
       </c>
       <c r="AM4">
-        <v>0.01721676853411878</v>
+        <v>0.01721676853407039</v>
       </c>
       <c r="AN4">
         <v>-179.9827832232861</v>
@@ -9644,7 +9644,7 @@
         <v>-179.9827832396435</v>
       </c>
       <c r="AP4">
-        <v>0.01721676806546866</v>
+        <v>0.01721676806541719</v>
       </c>
       <c r="AQ4">
         <v>-179.9827832258906</v>
@@ -9841,40 +9841,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.966639475340142E-09</v>
+        <v>-2.966625620995599E-09</v>
       </c>
       <c r="O2">
-        <v>-7.428100953978882E-10</v>
+        <v>-7.428048957258337E-10</v>
       </c>
       <c r="P2">
-        <v>-7.404957899589492E-10</v>
+        <v>-7.405027186922639E-10</v>
       </c>
       <c r="Q2">
-        <v>2.966618695448574E-09</v>
+        <v>2.966604837981954E-09</v>
       </c>
       <c r="R2">
-        <v>7.42817020932976E-10</v>
+        <v>7.428100927200156E-10</v>
       </c>
       <c r="S2">
-        <v>7.404992516479318E-10</v>
+        <v>7.40499255810698E-10</v>
       </c>
       <c r="T2">
-        <v>-2.626569805740183E-12</v>
+        <v>-2.630028968932105E-12</v>
       </c>
       <c r="U2">
-        <v>3.8300719243171E-09</v>
+        <v>3.830056340911312E-09</v>
       </c>
       <c r="V2">
-        <v>-3.831381746131183E-09</v>
+        <v>-3.831374821560636E-09</v>
       </c>
       <c r="W2">
-        <v>2.626563634440095E-12</v>
+        <v>2.640412775520451E-12</v>
       </c>
       <c r="X2">
-        <v>-3.830066726742767E-09</v>
+        <v>-3.830061533835213E-09</v>
       </c>
       <c r="Y2">
-        <v>3.831388674328028E-09</v>
+        <v>3.831374821024163E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9895,25 +9895,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7311297291053342</v>
+        <v>0.7311297291053347</v>
       </c>
       <c r="AH2">
         <v>0.3655648643427193</v>
       </c>
       <c r="AI2">
-        <v>0.3655648647626212</v>
+        <v>0.3655648647626211</v>
       </c>
       <c r="AJ2">
-        <v>0.7311297291211749</v>
+        <v>0.7311297291211754</v>
       </c>
       <c r="AK2">
-        <v>0.3655648643042824</v>
+        <v>0.3655648643042825</v>
       </c>
       <c r="AL2">
-        <v>0.3655648648168983</v>
+        <v>0.365564864816898</v>
       </c>
       <c r="AM2">
-        <v>0.01721676665950743</v>
+        <v>0.01721676665947008</v>
       </c>
       <c r="AN2">
         <v>-179.982783233704</v>
@@ -9922,7 +9922,7 @@
         <v>-179.9827832329748</v>
       </c>
       <c r="AP2">
-        <v>0.01721676806546866</v>
+        <v>0.01721676806541719</v>
       </c>
       <c r="AQ2">
         <v>-179.9827832258906</v>
@@ -9972,37 +9972,37 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.888521185342125E-10</v>
+        <v>9.88865968715989E-10</v>
       </c>
       <c r="O3">
-        <v>2.476010550584898E-10</v>
+        <v>2.475993239158557E-10</v>
       </c>
       <c r="P3">
-        <v>2.46831928102444E-10</v>
+        <v>2.468388568357586E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.888590451790054E-10</v>
+        <v>-9.888832863793632E-10</v>
       </c>
       <c r="R3">
-        <v>-2.476010544887874E-10</v>
+        <v>-2.475941273165196E-10</v>
       </c>
       <c r="S3">
-        <v>-2.468423180309627E-10</v>
+        <v>-2.468423180309622E-10</v>
       </c>
       <c r="T3">
-        <v>8.755149754202673E-13</v>
+        <v>8.85909116078665E-13</v>
       </c>
       <c r="U3">
-        <v>-1.276686024140881E-09</v>
+        <v>-1.276687756324207E-09</v>
       </c>
       <c r="V3">
-        <v>1.277134175586426E-09</v>
+        <v>1.277127251015877E-09</v>
       </c>
       <c r="W3">
-        <v>-8.755170487104773E-13</v>
+        <v>-8.824509854825965E-13</v>
       </c>
       <c r="X3">
-        <v>1.276684292533899E-09</v>
+        <v>1.276682562952304E-09</v>
       </c>
       <c r="Y3">
         <v>-1.277134178652475E-09</v>
@@ -10026,25 +10026,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7311297291264544</v>
+        <v>0.7311297291264552</v>
       </c>
       <c r="AH3">
-        <v>0.3655648642914708</v>
+        <v>0.3655648642914706</v>
       </c>
       <c r="AI3">
-        <v>0.3655648648349912</v>
+        <v>0.3655648648349906</v>
       </c>
       <c r="AJ3">
-        <v>0.7311297291211749</v>
+        <v>0.7311297291211754</v>
       </c>
       <c r="AK3">
-        <v>0.3655648643042824</v>
+        <v>0.3655648643042825</v>
       </c>
       <c r="AL3">
-        <v>0.3655648648168983</v>
+        <v>0.365564864816898</v>
       </c>
       <c r="AM3">
-        <v>0.01721676853411538</v>
+        <v>0.01721676853407039</v>
       </c>
       <c r="AN3">
         <v>-179.9827832232861</v>
@@ -10053,7 +10053,7 @@
         <v>-179.9827832396435</v>
       </c>
       <c r="AP3">
-        <v>0.01721676806546866</v>
+        <v>0.01721676806541719</v>
       </c>
       <c r="AQ3">
         <v>-179.9827832258906</v>
@@ -10103,40 +10103,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.888521206155972E-10</v>
+        <v>9.88865968715989E-10</v>
       </c>
       <c r="O4">
-        <v>2.476010550584897E-10</v>
+        <v>2.475993239158557E-10</v>
       </c>
       <c r="P4">
-        <v>2.468457793249232E-10</v>
+        <v>2.468388568357586E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.888590472603902E-10</v>
+        <v>-9.888832863793632E-10</v>
       </c>
       <c r="R4">
-        <v>-2.475941278368659E-10</v>
+        <v>-2.475941273165196E-10</v>
       </c>
       <c r="S4">
-        <v>-2.468492446828939E-10</v>
+        <v>-2.468423180309622E-10</v>
       </c>
       <c r="T4">
-        <v>8.685883234939888E-13</v>
+        <v>8.85909116078665E-13</v>
       </c>
       <c r="U4">
-        <v>-1.276686024140881E-09</v>
+        <v>-1.276687756324207E-09</v>
       </c>
       <c r="V4">
-        <v>1.277141106401126E-09</v>
+        <v>1.277127251015877E-09</v>
       </c>
       <c r="W4">
-        <v>-8.685903967841902E-13</v>
+        <v>-8.824509854825965E-13</v>
       </c>
       <c r="X4">
-        <v>1.276684294615284E-09</v>
+        <v>1.276682562952304E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.277134180733859E-09</v>
+        <v>-1.277134178652475E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10157,25 +10157,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7311297291264544</v>
+        <v>0.7311297291264552</v>
       </c>
       <c r="AH4">
-        <v>0.3655648642914707</v>
+        <v>0.3655648642914706</v>
       </c>
       <c r="AI4">
-        <v>0.3655648648349913</v>
+        <v>0.3655648648349906</v>
       </c>
       <c r="AJ4">
-        <v>0.7311297291211749</v>
+        <v>0.7311297291211754</v>
       </c>
       <c r="AK4">
-        <v>0.3655648643042824</v>
+        <v>0.3655648643042825</v>
       </c>
       <c r="AL4">
-        <v>0.3655648648168983</v>
+        <v>0.365564864816898</v>
       </c>
       <c r="AM4">
-        <v>0.01721676853411878</v>
+        <v>0.01721676853407039</v>
       </c>
       <c r="AN4">
         <v>-179.9827832232861</v>
@@ -10184,7 +10184,7 @@
         <v>-179.9827832396435</v>
       </c>
       <c r="AP4">
-        <v>0.01721676806546866</v>
+        <v>0.01721676806541719</v>
       </c>
       <c r="AQ4">
         <v>-179.9827832258906</v>
@@ -10381,40 +10381,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.27823960536492E-09</v>
+        <v>-2.278243087879935E-09</v>
       </c>
       <c r="O2">
-        <v>-1.906621315351239E-09</v>
+        <v>-1.906611790136124E-09</v>
       </c>
       <c r="P2">
-        <v>-3.133050606616588E-09</v>
+        <v>-3.13304865299395E-09</v>
       </c>
       <c r="Q2">
-        <v>2.278243367346318E-09</v>
+        <v>2.27823152262133E-09</v>
       </c>
       <c r="R2">
-        <v>1.906618621441982E-09</v>
+        <v>1.906622758416328E-09</v>
       </c>
       <c r="S2">
-        <v>3.133053859819989E-09</v>
+        <v>3.133051906197349E-09</v>
       </c>
       <c r="T2">
-        <v>7.137939505496804E-10</v>
+        <v>7.138023127596548E-10</v>
       </c>
       <c r="U2">
-        <v>4.345330923204518E-09</v>
+        <v>4.345325391273094E-09</v>
       </c>
       <c r="V2">
-        <v>-7.970712621871187E-10</v>
+        <v>-7.970670369514935E-10</v>
       </c>
       <c r="W2">
-        <v>-7.137982713381747E-10</v>
+        <v>-7.137933916432181E-10</v>
       </c>
       <c r="X2">
-        <v>-4.345325438930431E-09</v>
+        <v>-4.345320002792777E-09</v>
       </c>
       <c r="Y2">
-        <v>7.970738611660104E-10</v>
+        <v>7.970696359303841E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10435,25 +10435,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8551989639615297</v>
+        <v>0.8551989639615301</v>
       </c>
       <c r="AH2">
-        <v>0.6449366187237819</v>
+        <v>0.6449366187237821</v>
       </c>
       <c r="AI2">
         <v>0.4394789399935439</v>
       </c>
       <c r="AJ2">
-        <v>0.855198963968226</v>
+        <v>0.8551989639682264</v>
       </c>
       <c r="AK2">
         <v>0.6449366187054976</v>
       </c>
       <c r="AL2">
-        <v>0.4394789400293728</v>
+        <v>0.4394789400293725</v>
       </c>
       <c r="AM2">
-        <v>-3.955340391003945</v>
+        <v>-3.955340391003968</v>
       </c>
       <c r="AN2">
         <v>-153.8366771790807</v>
@@ -10462,7 +10462,7 @@
         <v>128.6205387876522</v>
       </c>
       <c r="AP2">
-        <v>-3.955340389996076</v>
+        <v>-3.955340389996107</v>
       </c>
       <c r="AQ2">
         <v>-153.8366771755841</v>
@@ -10512,40 +10512,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.593901574125834E-10</v>
+        <v>7.59415523478492E-10</v>
       </c>
       <c r="O3">
-        <v>6.355550307050937E-10</v>
+        <v>6.355535878511308E-10</v>
       </c>
       <c r="P3">
-        <v>1.044355399778216E-09</v>
+        <v>1.044357353400853E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.593985196191799E-10</v>
+        <v>-7.59423326813111E-10</v>
       </c>
       <c r="R3">
-        <v>-6.355468525267127E-10</v>
+        <v>-6.355535878276722E-10</v>
       </c>
       <c r="S3">
-        <v>-1.044352146762406E-09</v>
+        <v>-1.044354100385044E-09</v>
       </c>
       <c r="T3">
-        <v>-2.379513805732527E-10</v>
+        <v>-2.379368916412153E-10</v>
       </c>
       <c r="U3">
-        <v>-1.448441010703838E-09</v>
+        <v>-1.44845193087603E-09</v>
       </c>
       <c r="V3">
-        <v>2.656839148507391E-10</v>
+        <v>2.656881400863644E-10</v>
       </c>
       <c r="W3">
-        <v>2.379478980620694E-10</v>
+        <v>2.379414919040167E-10</v>
       </c>
       <c r="X3">
-        <v>1.448438220816299E-09</v>
+        <v>1.448451930902646E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.656813160846875E-10</v>
+        <v>-2.656855413203134E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10566,25 +10566,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8551989639704575</v>
+        <v>0.8551989639704582</v>
       </c>
       <c r="AH3">
-        <v>0.6449366186994032</v>
+        <v>0.6449366186994028</v>
       </c>
       <c r="AI3">
-        <v>0.4394789400413159</v>
+        <v>0.4394789400413155</v>
       </c>
       <c r="AJ3">
-        <v>0.855198963968226</v>
+        <v>0.8551989639682264</v>
       </c>
       <c r="AK3">
         <v>0.6449366187054976</v>
       </c>
       <c r="AL3">
-        <v>0.4394789400293728</v>
+        <v>0.4394789400293725</v>
       </c>
       <c r="AM3">
-        <v>-3.955340389660123</v>
+        <v>-3.95534038966015</v>
       </c>
       <c r="AN3">
         <v>-153.8366771744186</v>
@@ -10593,7 +10593,7 @@
         <v>128.6205387919062</v>
       </c>
       <c r="AP3">
-        <v>-3.955340389996076</v>
+        <v>-3.955340389996107</v>
       </c>
       <c r="AQ3">
         <v>-153.8366771755841</v>
@@ -10643,40 +10643,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.593907162845607E-10</v>
+        <v>7.59415523478492E-10</v>
       </c>
       <c r="O4">
-        <v>6.355386743952477E-10</v>
+        <v>6.355535878511308E-10</v>
       </c>
       <c r="P4">
-        <v>1.044367103241829E-09</v>
+        <v>1.044357353400853E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.594031198781495E-10</v>
+        <v>-7.59423326813111E-10</v>
       </c>
       <c r="R4">
-        <v>-6.355413684921736E-10</v>
+        <v>-6.355535878276722E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044363850226019E-09</v>
+        <v>-1.044354100385044E-09</v>
       </c>
       <c r="T4">
-        <v>-2.379432977992681E-10</v>
+        <v>-2.379368916412153E-10</v>
       </c>
       <c r="U4">
-        <v>-1.448435430875528E-09</v>
+        <v>-1.44845193087603E-09</v>
       </c>
       <c r="V4">
-        <v>2.656826063449084E-10</v>
+        <v>2.656881400863644E-10</v>
       </c>
       <c r="W4">
-        <v>2.379400947240733E-10</v>
+        <v>2.379414919040167E-10</v>
       </c>
       <c r="X4">
-        <v>1.448440914936682E-09</v>
+        <v>1.448451930902646E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.656800075788565E-10</v>
+        <v>-2.656855413203134E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10697,25 +10697,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.8551989639704576</v>
+        <v>0.8551989639704582</v>
       </c>
       <c r="AH4">
-        <v>0.644936618699403</v>
+        <v>0.6449366186994028</v>
       </c>
       <c r="AI4">
-        <v>0.4394789400413159</v>
+        <v>0.4394789400413155</v>
       </c>
       <c r="AJ4">
-        <v>0.855198963968226</v>
+        <v>0.8551989639682264</v>
       </c>
       <c r="AK4">
         <v>0.6449366187054976</v>
       </c>
       <c r="AL4">
-        <v>0.4394789400293728</v>
+        <v>0.4394789400293725</v>
       </c>
       <c r="AM4">
-        <v>-3.955340389660124</v>
+        <v>-3.95534038966015</v>
       </c>
       <c r="AN4">
         <v>-153.8366771744186</v>
@@ -10724,7 +10724,7 @@
         <v>128.6205387919062</v>
       </c>
       <c r="AP4">
-        <v>-3.955340389996076</v>
+        <v>-3.955340389996107</v>
       </c>
       <c r="AQ4">
         <v>-153.8366771755841</v>
@@ -10921,40 +10921,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.27823960536492E-09</v>
+        <v>-2.278243087879935E-09</v>
       </c>
       <c r="O2">
-        <v>-1.906621315351239E-09</v>
+        <v>-1.906611790136124E-09</v>
       </c>
       <c r="P2">
-        <v>-3.133050606616588E-09</v>
+        <v>-3.13304865299395E-09</v>
       </c>
       <c r="Q2">
-        <v>2.278243367346318E-09</v>
+        <v>2.27823152262133E-09</v>
       </c>
       <c r="R2">
-        <v>1.906618621441982E-09</v>
+        <v>1.906622758416328E-09</v>
       </c>
       <c r="S2">
-        <v>3.133053859819989E-09</v>
+        <v>3.133051906197349E-09</v>
       </c>
       <c r="T2">
-        <v>7.137939505496804E-10</v>
+        <v>7.138023127596548E-10</v>
       </c>
       <c r="U2">
-        <v>4.345330923204518E-09</v>
+        <v>4.345325391273094E-09</v>
       </c>
       <c r="V2">
-        <v>-7.970712621871187E-10</v>
+        <v>-7.970670369514935E-10</v>
       </c>
       <c r="W2">
-        <v>-7.137982713381747E-10</v>
+        <v>-7.137933916432181E-10</v>
       </c>
       <c r="X2">
-        <v>-4.345325438930431E-09</v>
+        <v>-4.345320002792777E-09</v>
       </c>
       <c r="Y2">
-        <v>7.970738611660104E-10</v>
+        <v>7.970696359303841E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10975,25 +10975,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8551989639615297</v>
+        <v>0.8551989639615301</v>
       </c>
       <c r="AH2">
-        <v>0.6449366187237819</v>
+        <v>0.6449366187237821</v>
       </c>
       <c r="AI2">
         <v>0.4394789399935439</v>
       </c>
       <c r="AJ2">
-        <v>0.855198963968226</v>
+        <v>0.8551989639682264</v>
       </c>
       <c r="AK2">
         <v>0.6449366187054976</v>
       </c>
       <c r="AL2">
-        <v>0.4394789400293728</v>
+        <v>0.4394789400293725</v>
       </c>
       <c r="AM2">
-        <v>-3.955340391003945</v>
+        <v>-3.955340391003968</v>
       </c>
       <c r="AN2">
         <v>-153.8366771790807</v>
@@ -11002,7 +11002,7 @@
         <v>128.6205387876522</v>
       </c>
       <c r="AP2">
-        <v>-3.955340389996076</v>
+        <v>-3.955340389996107</v>
       </c>
       <c r="AQ2">
         <v>-153.8366771755841</v>
@@ -11052,40 +11052,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.593901574125834E-10</v>
+        <v>7.59415523478492E-10</v>
       </c>
       <c r="O3">
-        <v>6.355550307050937E-10</v>
+        <v>6.355535878511308E-10</v>
       </c>
       <c r="P3">
-        <v>1.044355399778216E-09</v>
+        <v>1.044357353400853E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.593985196191799E-10</v>
+        <v>-7.59423326813111E-10</v>
       </c>
       <c r="R3">
-        <v>-6.355468525267127E-10</v>
+        <v>-6.355535878276722E-10</v>
       </c>
       <c r="S3">
-        <v>-1.044352146762406E-09</v>
+        <v>-1.044354100385044E-09</v>
       </c>
       <c r="T3">
-        <v>-2.379513805732527E-10</v>
+        <v>-2.379368916412153E-10</v>
       </c>
       <c r="U3">
-        <v>-1.448441010703838E-09</v>
+        <v>-1.44845193087603E-09</v>
       </c>
       <c r="V3">
-        <v>2.656839148507391E-10</v>
+        <v>2.656881400863644E-10</v>
       </c>
       <c r="W3">
-        <v>2.379478980620694E-10</v>
+        <v>2.379414919040167E-10</v>
       </c>
       <c r="X3">
-        <v>1.448438220816299E-09</v>
+        <v>1.448451930902646E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.656813160846875E-10</v>
+        <v>-2.656855413203134E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11106,25 +11106,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8551989639704575</v>
+        <v>0.8551989639704582</v>
       </c>
       <c r="AH3">
-        <v>0.6449366186994032</v>
+        <v>0.6449366186994028</v>
       </c>
       <c r="AI3">
-        <v>0.4394789400413159</v>
+        <v>0.4394789400413155</v>
       </c>
       <c r="AJ3">
-        <v>0.855198963968226</v>
+        <v>0.8551989639682264</v>
       </c>
       <c r="AK3">
         <v>0.6449366187054976</v>
       </c>
       <c r="AL3">
-        <v>0.4394789400293728</v>
+        <v>0.4394789400293725</v>
       </c>
       <c r="AM3">
-        <v>-3.955340389660123</v>
+        <v>-3.95534038966015</v>
       </c>
       <c r="AN3">
         <v>-153.8366771744186</v>
@@ -11133,7 +11133,7 @@
         <v>128.6205387919062</v>
       </c>
       <c r="AP3">
-        <v>-3.955340389996076</v>
+        <v>-3.955340389996107</v>
       </c>
       <c r="AQ3">
         <v>-153.8366771755841</v>
@@ -11183,40 +11183,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.593907162845607E-10</v>
+        <v>7.59415523478492E-10</v>
       </c>
       <c r="O4">
-        <v>6.355386743952477E-10</v>
+        <v>6.355535878511308E-10</v>
       </c>
       <c r="P4">
-        <v>1.044367103241829E-09</v>
+        <v>1.044357353400853E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.594031198781495E-10</v>
+        <v>-7.59423326813111E-10</v>
       </c>
       <c r="R4">
-        <v>-6.355413684921736E-10</v>
+        <v>-6.355535878276722E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044363850226019E-09</v>
+        <v>-1.044354100385044E-09</v>
       </c>
       <c r="T4">
-        <v>-2.379432977992681E-10</v>
+        <v>-2.379368916412153E-10</v>
       </c>
       <c r="U4">
-        <v>-1.448435430875528E-09</v>
+        <v>-1.44845193087603E-09</v>
       </c>
       <c r="V4">
-        <v>2.656826063449084E-10</v>
+        <v>2.656881400863644E-10</v>
       </c>
       <c r="W4">
-        <v>2.379400947240733E-10</v>
+        <v>2.379414919040167E-10</v>
       </c>
       <c r="X4">
-        <v>1.448440914936682E-09</v>
+        <v>1.448451930902646E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.656800075788565E-10</v>
+        <v>-2.656855413203134E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11237,25 +11237,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.8551989639704576</v>
+        <v>0.8551989639704582</v>
       </c>
       <c r="AH4">
-        <v>0.644936618699403</v>
+        <v>0.6449366186994028</v>
       </c>
       <c r="AI4">
-        <v>0.4394789400413159</v>
+        <v>0.4394789400413155</v>
       </c>
       <c r="AJ4">
-        <v>0.855198963968226</v>
+        <v>0.8551989639682264</v>
       </c>
       <c r="AK4">
         <v>0.6449366187054976</v>
       </c>
       <c r="AL4">
-        <v>0.4394789400293728</v>
+        <v>0.4394789400293725</v>
       </c>
       <c r="AM4">
-        <v>-3.955340389660124</v>
+        <v>-3.95534038966015</v>
       </c>
       <c r="AN4">
         <v>-153.8366771744186</v>
@@ -11264,7 +11264,7 @@
         <v>128.6205387919062</v>
       </c>
       <c r="AP4">
-        <v>-3.955340389996076</v>
+        <v>-3.955340389996107</v>
       </c>
       <c r="AQ4">
         <v>-153.8366771755841</v>
@@ -11461,40 +11461,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.452721687690681E-09</v>
+        <v>-2.452718536203957E-09</v>
       </c>
       <c r="O2">
-        <v>-6.142721314333012E-10</v>
+        <v>-6.142689847794669E-10</v>
       </c>
       <c r="P2">
-        <v>-6.121028733697843E-10</v>
+        <v>-6.120965800621197E-10</v>
       </c>
       <c r="Q2">
-        <v>2.452718540601908E-09</v>
+        <v>2.452721684570805E-09</v>
       </c>
       <c r="R2">
-        <v>6.142658382935141E-10</v>
+        <v>6.142721299902082E-10</v>
       </c>
       <c r="S2">
-        <v>6.120997290321344E-10</v>
+        <v>6.121013015535821E-10</v>
       </c>
       <c r="T2">
-        <v>-2.495558308297732E-12</v>
+        <v>-2.508145997610533E-12</v>
       </c>
       <c r="U2">
-        <v>3.163951222150094E-09</v>
+        <v>3.163952796819484E-09</v>
       </c>
       <c r="V2">
-        <v>-3.165203730059228E-09</v>
+        <v>-3.165200580720458E-09</v>
       </c>
       <c r="W2">
-        <v>2.495557294628432E-12</v>
+        <v>2.504999941071096E-12</v>
       </c>
       <c r="X2">
-        <v>-3.163952797476922E-09</v>
+        <v>-3.163944927351924E-09</v>
       </c>
       <c r="Y2">
-        <v>3.165197435020354E-09</v>
+        <v>3.165200582748168E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -11515,40 +11515,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.66439163618761</v>
+        <v>0.6643916361876099</v>
       </c>
       <c r="AH2">
-        <v>0.3321958179292141</v>
+        <v>0.3321958179292144</v>
       </c>
       <c r="AI2">
-        <v>0.332195818258402</v>
+        <v>0.3321958182584026</v>
       </c>
       <c r="AJ2">
         <v>0.6643916362152698</v>
       </c>
       <c r="AK2">
-        <v>0.3321958179009152</v>
+        <v>0.3321958179009156</v>
       </c>
       <c r="AL2">
-        <v>0.3321958183143616</v>
+        <v>0.3321958183143619</v>
       </c>
       <c r="AM2">
-        <v>0.01955212036741396</v>
+        <v>0.01955212036741434</v>
       </c>
       <c r="AN2">
         <v>-179.9804478777208</v>
       </c>
       <c r="AO2">
-        <v>-179.9804478815423</v>
+        <v>-179.9804478815425</v>
       </c>
       <c r="AP2">
-        <v>0.01955212177374359</v>
+        <v>0.01955212177376</v>
       </c>
       <c r="AQ2">
-        <v>-179.9804478640088</v>
+        <v>-179.9804478640089</v>
       </c>
       <c r="AR2">
-        <v>-179.9804478924416</v>
+        <v>-179.9804478924418</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -11592,40 +11592,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.175801931878284E-10</v>
+        <v>8.175676001286374E-10</v>
       </c>
       <c r="O3">
-        <v>2.047542316988562E-10</v>
+        <v>2.047542300878899E-10</v>
       </c>
       <c r="P3">
-        <v>2.040311442458695E-10</v>
+        <v>2.040311431718977E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.175770449116914E-10</v>
+        <v>-8.175707473081206E-10</v>
       </c>
       <c r="R3">
-        <v>-2.047542310835488E-10</v>
+        <v>-2.047479372388946E-10</v>
       </c>
       <c r="S3">
-        <v>-2.040311420195629E-10</v>
+        <v>-2.04029569498129E-10</v>
       </c>
       <c r="T3">
-        <v>8.234624353270234E-13</v>
+        <v>8.360469027137926E-13</v>
       </c>
       <c r="U3">
-        <v>-1.054654604526641E-09</v>
+        <v>-1.054649883740411E-09</v>
       </c>
       <c r="V3">
-        <v>1.05506790913099E-09</v>
+        <v>1.055071056321815E-09</v>
       </c>
       <c r="W3">
-        <v>-8.266085454731269E-13</v>
+        <v>-8.360479699889721E-13</v>
       </c>
       <c r="X3">
-        <v>1.054653030977513E-09</v>
+        <v>1.054654606720877E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.055074203466333E-09</v>
+        <v>-1.055071055738522E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11649,37 +11649,37 @@
         <v>0.6643916362244897</v>
       </c>
       <c r="AH3">
-        <v>0.3321958178914821</v>
+        <v>0.3321958178914823</v>
       </c>
       <c r="AI3">
-        <v>0.3321958183330145</v>
+        <v>0.3321958183330148</v>
       </c>
       <c r="AJ3">
         <v>0.6643916362152698</v>
       </c>
       <c r="AK3">
-        <v>0.3321958179009152</v>
+        <v>0.3321958179009156</v>
       </c>
       <c r="AL3">
-        <v>0.3321958183143616</v>
+        <v>0.3321958183143619</v>
       </c>
       <c r="AM3">
-        <v>0.01955212224252001</v>
+        <v>0.01955212224250715</v>
       </c>
       <c r="AN3">
-        <v>-179.9804478594381</v>
+        <v>-179.9804478594382</v>
       </c>
       <c r="AO3">
-        <v>-179.9804478960747</v>
+        <v>-179.9804478960748</v>
       </c>
       <c r="AP3">
-        <v>0.01955212177374359</v>
+        <v>0.01955212177376</v>
       </c>
       <c r="AQ3">
-        <v>-179.9804478640088</v>
+        <v>-179.9804478640089</v>
       </c>
       <c r="AR3">
-        <v>-179.9804478924416</v>
+        <v>-179.9804478924418</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -11723,40 +11723,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.1757389021438E-10</v>
+        <v>8.175676001286374E-10</v>
       </c>
       <c r="O4">
-        <v>2.047542327728331E-10</v>
+        <v>2.047542300878899E-10</v>
       </c>
       <c r="P4">
-        <v>2.040279949070971E-10</v>
+        <v>2.040311431718977E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.175770373938633E-10</v>
+        <v>-8.175707473081206E-10</v>
       </c>
       <c r="R4">
-        <v>-2.04757378274369E-10</v>
+        <v>-2.047479372388946E-10</v>
       </c>
       <c r="S4">
-        <v>-2.040279926807895E-10</v>
+        <v>-2.04029569498129E-10</v>
       </c>
       <c r="T4">
-        <v>8.486378139534225E-13</v>
+        <v>8.360469027137926E-13</v>
       </c>
       <c r="U4">
-        <v>-1.05465775171746E-09</v>
+        <v>-1.054649883740411E-09</v>
       </c>
       <c r="V4">
-        <v>1.055074202438664E-09</v>
+        <v>1.055071056321815E-09</v>
       </c>
       <c r="W4">
-        <v>-8.486388812283196E-13</v>
+        <v>-8.360479699889721E-13</v>
       </c>
       <c r="X4">
-        <v>1.054653029903537E-09</v>
+        <v>1.054654606720877E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.055080496774006E-09</v>
+        <v>-1.055071055738522E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11780,37 +11780,37 @@
         <v>0.6643916362244897</v>
       </c>
       <c r="AH4">
-        <v>0.3321958178914821</v>
+        <v>0.3321958178914823</v>
       </c>
       <c r="AI4">
-        <v>0.3321958183330146</v>
+        <v>0.3321958183330148</v>
       </c>
       <c r="AJ4">
         <v>0.6643916362152698</v>
       </c>
       <c r="AK4">
-        <v>0.3321958179009152</v>
+        <v>0.3321958179009156</v>
       </c>
       <c r="AL4">
-        <v>0.3321958183143616</v>
+        <v>0.3321958183143619</v>
       </c>
       <c r="AM4">
-        <v>0.01955212224249465</v>
+        <v>0.01955212224250715</v>
       </c>
       <c r="AN4">
-        <v>-179.9804478594381</v>
+        <v>-179.9804478594382</v>
       </c>
       <c r="AO4">
         <v>-179.9804478960748</v>
       </c>
       <c r="AP4">
-        <v>0.01955212177374359</v>
+        <v>0.01955212177376</v>
       </c>
       <c r="AQ4">
-        <v>-179.9804478640088</v>
+        <v>-179.9804478640089</v>
       </c>
       <c r="AR4">
-        <v>-179.9804478924416</v>
+        <v>-179.9804478924418</v>
       </c>
     </row>
   </sheetData>
@@ -12226,40 +12226,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.452721687690681E-09</v>
+        <v>-2.452718536203957E-09</v>
       </c>
       <c r="O2">
-        <v>-6.142721314333012E-10</v>
+        <v>-6.142689847794669E-10</v>
       </c>
       <c r="P2">
-        <v>-6.121028733697843E-10</v>
+        <v>-6.120965800621197E-10</v>
       </c>
       <c r="Q2">
-        <v>2.452718540601908E-09</v>
+        <v>2.452721684570805E-09</v>
       </c>
       <c r="R2">
-        <v>6.142658382935141E-10</v>
+        <v>6.142721299902082E-10</v>
       </c>
       <c r="S2">
-        <v>6.120997290321344E-10</v>
+        <v>6.121013015535821E-10</v>
       </c>
       <c r="T2">
-        <v>-2.495558308297732E-12</v>
+        <v>-2.508145997610533E-12</v>
       </c>
       <c r="U2">
-        <v>3.163951222150094E-09</v>
+        <v>3.163952796819484E-09</v>
       </c>
       <c r="V2">
-        <v>-3.165203730059228E-09</v>
+        <v>-3.165200580720458E-09</v>
       </c>
       <c r="W2">
-        <v>2.495557294628432E-12</v>
+        <v>2.504999941071096E-12</v>
       </c>
       <c r="X2">
-        <v>-3.163952797476922E-09</v>
+        <v>-3.163944927351924E-09</v>
       </c>
       <c r="Y2">
-        <v>3.165197435020354E-09</v>
+        <v>3.165200582748168E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12280,40 +12280,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.66439163618761</v>
+        <v>0.6643916361876099</v>
       </c>
       <c r="AH2">
-        <v>0.3321958179292141</v>
+        <v>0.3321958179292144</v>
       </c>
       <c r="AI2">
-        <v>0.332195818258402</v>
+        <v>0.3321958182584026</v>
       </c>
       <c r="AJ2">
         <v>0.6643916362152698</v>
       </c>
       <c r="AK2">
-        <v>0.3321958179009152</v>
+        <v>0.3321958179009156</v>
       </c>
       <c r="AL2">
-        <v>0.3321958183143616</v>
+        <v>0.3321958183143619</v>
       </c>
       <c r="AM2">
-        <v>0.01955212036741396</v>
+        <v>0.01955212036741434</v>
       </c>
       <c r="AN2">
         <v>-179.9804478777208</v>
       </c>
       <c r="AO2">
-        <v>-179.9804478815423</v>
+        <v>-179.9804478815425</v>
       </c>
       <c r="AP2">
-        <v>0.01955212177374359</v>
+        <v>0.01955212177376</v>
       </c>
       <c r="AQ2">
-        <v>-179.9804478640088</v>
+        <v>-179.9804478640089</v>
       </c>
       <c r="AR2">
-        <v>-179.9804478924416</v>
+        <v>-179.9804478924418</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12357,40 +12357,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.175801931878284E-10</v>
+        <v>8.175676001286374E-10</v>
       </c>
       <c r="O3">
-        <v>2.047542316988562E-10</v>
+        <v>2.047542300878899E-10</v>
       </c>
       <c r="P3">
-        <v>2.040311442458695E-10</v>
+        <v>2.040311431718977E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.175770449116914E-10</v>
+        <v>-8.175707473081206E-10</v>
       </c>
       <c r="R3">
-        <v>-2.047542310835488E-10</v>
+        <v>-2.047479372388946E-10</v>
       </c>
       <c r="S3">
-        <v>-2.040311420195629E-10</v>
+        <v>-2.04029569498129E-10</v>
       </c>
       <c r="T3">
-        <v>8.234624353270234E-13</v>
+        <v>8.360469027137926E-13</v>
       </c>
       <c r="U3">
-        <v>-1.054654604526641E-09</v>
+        <v>-1.054649883740411E-09</v>
       </c>
       <c r="V3">
-        <v>1.05506790913099E-09</v>
+        <v>1.055071056321815E-09</v>
       </c>
       <c r="W3">
-        <v>-8.266085454731269E-13</v>
+        <v>-8.360479699889721E-13</v>
       </c>
       <c r="X3">
-        <v>1.054653030977513E-09</v>
+        <v>1.054654606720877E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.055074203466333E-09</v>
+        <v>-1.055071055738522E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12414,37 +12414,37 @@
         <v>0.6643916362244897</v>
       </c>
       <c r="AH3">
-        <v>0.3321958178914821</v>
+        <v>0.3321958178914823</v>
       </c>
       <c r="AI3">
-        <v>0.3321958183330145</v>
+        <v>0.3321958183330148</v>
       </c>
       <c r="AJ3">
         <v>0.6643916362152698</v>
       </c>
       <c r="AK3">
-        <v>0.3321958179009152</v>
+        <v>0.3321958179009156</v>
       </c>
       <c r="AL3">
-        <v>0.3321958183143616</v>
+        <v>0.3321958183143619</v>
       </c>
       <c r="AM3">
-        <v>0.01955212224252001</v>
+        <v>0.01955212224250715</v>
       </c>
       <c r="AN3">
-        <v>-179.9804478594381</v>
+        <v>-179.9804478594382</v>
       </c>
       <c r="AO3">
-        <v>-179.9804478960747</v>
+        <v>-179.9804478960748</v>
       </c>
       <c r="AP3">
-        <v>0.01955212177374359</v>
+        <v>0.01955212177376</v>
       </c>
       <c r="AQ3">
-        <v>-179.9804478640088</v>
+        <v>-179.9804478640089</v>
       </c>
       <c r="AR3">
-        <v>-179.9804478924416</v>
+        <v>-179.9804478924418</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -12488,40 +12488,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.1757389021438E-10</v>
+        <v>8.175676001286374E-10</v>
       </c>
       <c r="O4">
-        <v>2.047542327728331E-10</v>
+        <v>2.047542300878899E-10</v>
       </c>
       <c r="P4">
-        <v>2.040279949070971E-10</v>
+        <v>2.040311431718977E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.175770373938633E-10</v>
+        <v>-8.175707473081206E-10</v>
       </c>
       <c r="R4">
-        <v>-2.04757378274369E-10</v>
+        <v>-2.047479372388946E-10</v>
       </c>
       <c r="S4">
-        <v>-2.040279926807895E-10</v>
+        <v>-2.04029569498129E-10</v>
       </c>
       <c r="T4">
-        <v>8.486378139534225E-13</v>
+        <v>8.360469027137926E-13</v>
       </c>
       <c r="U4">
-        <v>-1.05465775171746E-09</v>
+        <v>-1.054649883740411E-09</v>
       </c>
       <c r="V4">
-        <v>1.055074202438664E-09</v>
+        <v>1.055071056321815E-09</v>
       </c>
       <c r="W4">
-        <v>-8.486388812283196E-13</v>
+        <v>-8.360479699889721E-13</v>
       </c>
       <c r="X4">
-        <v>1.054653029903537E-09</v>
+        <v>1.054654606720877E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.055080496774006E-09</v>
+        <v>-1.055071055738522E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -12545,37 +12545,37 @@
         <v>0.6643916362244897</v>
       </c>
       <c r="AH4">
-        <v>0.3321958178914821</v>
+        <v>0.3321958178914823</v>
       </c>
       <c r="AI4">
-        <v>0.3321958183330146</v>
+        <v>0.3321958183330148</v>
       </c>
       <c r="AJ4">
         <v>0.6643916362152698</v>
       </c>
       <c r="AK4">
-        <v>0.3321958179009152</v>
+        <v>0.3321958179009156</v>
       </c>
       <c r="AL4">
-        <v>0.3321958183143616</v>
+        <v>0.3321958183143619</v>
       </c>
       <c r="AM4">
-        <v>0.01955212224249465</v>
+        <v>0.01955212224250715</v>
       </c>
       <c r="AN4">
-        <v>-179.9804478594381</v>
+        <v>-179.9804478594382</v>
       </c>
       <c r="AO4">
         <v>-179.9804478960748</v>
       </c>
       <c r="AP4">
-        <v>0.01955212177374359</v>
+        <v>0.01955212177376</v>
       </c>
       <c r="AQ4">
-        <v>-179.9804478640088</v>
+        <v>-179.9804478640089</v>
       </c>
       <c r="AR4">
-        <v>-179.9804478924416</v>
+        <v>-179.9804478924418</v>
       </c>
     </row>
   </sheetData>
@@ -12766,40 +12766,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.94772970542643E-09</v>
+        <v>-1.947731460244913E-09</v>
       </c>
       <c r="O2">
-        <v>-1.540753822025684E-09</v>
+        <v>-1.540747956355278E-09</v>
       </c>
       <c r="P2">
-        <v>-2.507005506028969E-09</v>
+        <v>-2.507004639365804E-09</v>
       </c>
       <c r="Q2">
-        <v>1.94772505355056E-09</v>
+        <v>1.947735084847721E-09</v>
       </c>
       <c r="R2">
-        <v>1.540756926417791E-09</v>
+        <v>1.540746966191024E-09</v>
       </c>
       <c r="S2">
-        <v>2.507006693370757E-09</v>
+        <v>2.507005826707595E-09</v>
       </c>
       <c r="T2">
-        <v>5.630823641704128E-10</v>
+        <v>5.630697388638339E-10</v>
       </c>
       <c r="U2">
-        <v>3.61947216290782E-09</v>
+        <v>3.619468944749497E-09</v>
       </c>
       <c r="V2">
-        <v>-8.22934807714704E-10</v>
+        <v>-8.229412230828581E-10</v>
       </c>
       <c r="W2">
-        <v>-5.63083873314408E-10</v>
+        <v>-5.630699813131503E-10</v>
       </c>
       <c r="X2">
-        <v>-3.619469286922712E-09</v>
+        <v>-3.619463517063579E-09</v>
       </c>
       <c r="Y2">
-        <v>8.229334607923683E-10</v>
+        <v>8.229398761605212E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12820,37 +12820,37 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7668755422478354</v>
+        <v>0.7668755422478353</v>
       </c>
       <c r="AH2">
         <v>0.5649615026650587</v>
       </c>
       <c r="AI2">
-        <v>0.3790339612538544</v>
+        <v>0.3790339612538548</v>
       </c>
       <c r="AJ2">
-        <v>0.7668755422636042</v>
+        <v>0.7668755422636044</v>
       </c>
       <c r="AK2">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571307</v>
       </c>
       <c r="AL2">
-        <v>0.3790339613129891</v>
+        <v>0.3790339613129897</v>
       </c>
       <c r="AM2">
-        <v>-3.827350193674389</v>
+        <v>-3.827350193674386</v>
       </c>
       <c r="AN2">
-        <v>-155.6209588726732</v>
+        <v>-155.6209588726733</v>
       </c>
       <c r="AO2">
         <v>131.3836767675908</v>
       </c>
       <c r="AP2">
-        <v>-3.827350192423927</v>
+        <v>-3.82735019242391</v>
       </c>
       <c r="AQ2">
-        <v>-155.6209588665842</v>
+        <v>-155.6209588665843</v>
       </c>
       <c r="AR2">
         <v>131.3836767695575</v>
@@ -12897,40 +12897,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.492451665718905E-10</v>
+        <v>6.492412420844224E-10</v>
       </c>
       <c r="O3">
-        <v>5.135874771678282E-10</v>
+        <v>5.135818397559191E-10</v>
       </c>
       <c r="P3">
-        <v>8.356657011254648E-10</v>
+        <v>8.356689888884778E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.492459514635686E-10</v>
+        <v>-6.492376175281382E-10</v>
       </c>
       <c r="R3">
-        <v>-5.135821637853522E-10</v>
+        <v>-5.135828302428651E-10</v>
       </c>
       <c r="S3">
-        <v>-8.356672083797948E-10</v>
+        <v>-8.35667208379796E-10</v>
       </c>
       <c r="T3">
-        <v>-1.877015321308264E-10</v>
+        <v>-1.876921676543456E-10</v>
       </c>
       <c r="U3">
-        <v>-1.206499214331305E-09</v>
+        <v>-1.206490016373329E-09</v>
       </c>
       <c r="V3">
-        <v>2.743075392986018E-10</v>
+        <v>2.743092396880289E-10</v>
       </c>
       <c r="W3">
-        <v>1.877034050295592E-10</v>
+        <v>1.876919251775351E-10</v>
       </c>
       <c r="X3">
-        <v>1.206497214982599E-09</v>
+        <v>1.206495443868553E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.743112603693698E-10</v>
+        <v>-2.7431126036937E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12951,37 +12951,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7668755422688605</v>
+        <v>0.7668755422688609</v>
       </c>
       <c r="AH3">
-        <v>0.5649615026544883</v>
+        <v>0.564961502654488</v>
       </c>
       <c r="AI3">
-        <v>0.3790339613327004</v>
+        <v>0.379033961332701</v>
       </c>
       <c r="AJ3">
-        <v>0.7668755422636042</v>
+        <v>0.7668755422636044</v>
       </c>
       <c r="AK3">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571307</v>
       </c>
       <c r="AL3">
-        <v>0.3790339613129891</v>
+        <v>0.3790339613129897</v>
       </c>
       <c r="AM3">
-        <v>-3.827350192007103</v>
+        <v>-3.827350192007101</v>
       </c>
       <c r="AN3">
         <v>-155.6209588645546</v>
       </c>
       <c r="AO3">
-        <v>131.3836767702131</v>
+        <v>131.383676770213</v>
       </c>
       <c r="AP3">
-        <v>-3.827350192423927</v>
+        <v>-3.82735019242391</v>
       </c>
       <c r="AQ3">
-        <v>-155.6209588665842</v>
+        <v>-155.6209588665843</v>
       </c>
       <c r="AR3">
         <v>131.3836767695575</v>
@@ -13028,40 +13028,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.49228983661523E-10</v>
+        <v>6.492412420844224E-10</v>
       </c>
       <c r="O4">
-        <v>5.135945616240133E-10</v>
+        <v>5.135818397559191E-10</v>
       </c>
       <c r="P4">
-        <v>8.356741514039077E-10</v>
+        <v>8.356689888884778E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.492298897933249E-10</v>
+        <v>-6.492376175281382E-10</v>
       </c>
       <c r="R4">
-        <v>-5.135963326977213E-10</v>
+        <v>-5.135828302428651E-10</v>
       </c>
       <c r="S4">
-        <v>-8.356762521476907E-10</v>
+        <v>-8.35667208379796E-10</v>
       </c>
       <c r="T4">
-        <v>-1.876713233258411E-10</v>
+        <v>-1.876921676543456E-10</v>
       </c>
       <c r="U4">
-        <v>-1.206501880161363E-09</v>
+        <v>-1.206490016373329E-09</v>
       </c>
       <c r="V4">
-        <v>2.743305394345627E-10</v>
+        <v>2.743092396880289E-10</v>
       </c>
       <c r="W4">
-        <v>1.876713839493393E-10</v>
+        <v>1.876919251775351E-10</v>
       </c>
       <c r="X4">
-        <v>1.206502546642715E-09</v>
+        <v>1.206495443868553E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.743335869369406E-10</v>
+        <v>-2.7431126036937E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13082,25 +13082,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7668755422688605</v>
+        <v>0.7668755422688609</v>
       </c>
       <c r="AH4">
-        <v>0.5649615026544885</v>
+        <v>0.564961502654488</v>
       </c>
       <c r="AI4">
-        <v>0.3790339613327008</v>
+        <v>0.379033961332701</v>
       </c>
       <c r="AJ4">
-        <v>0.7668755422636042</v>
+        <v>0.7668755422636044</v>
       </c>
       <c r="AK4">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571307</v>
       </c>
       <c r="AL4">
-        <v>0.3790339613129891</v>
+        <v>0.3790339613129897</v>
       </c>
       <c r="AM4">
-        <v>-3.827350192007134</v>
+        <v>-3.827350192007101</v>
       </c>
       <c r="AN4">
         <v>-155.6209588645546</v>
@@ -13109,10 +13109,10 @@
         <v>131.383676770213</v>
       </c>
       <c r="AP4">
-        <v>-3.827350192423927</v>
+        <v>-3.82735019242391</v>
       </c>
       <c r="AQ4">
-        <v>-155.6209588665842</v>
+        <v>-155.6209588665843</v>
       </c>
       <c r="AR4">
         <v>131.3836767695575</v>
@@ -13306,40 +13306,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.94772970542643E-09</v>
+        <v>-1.947731460244913E-09</v>
       </c>
       <c r="O2">
-        <v>-1.540753822025684E-09</v>
+        <v>-1.540747956355278E-09</v>
       </c>
       <c r="P2">
-        <v>-2.507005506028969E-09</v>
+        <v>-2.507004639365804E-09</v>
       </c>
       <c r="Q2">
-        <v>1.94772505355056E-09</v>
+        <v>1.947735084847721E-09</v>
       </c>
       <c r="R2">
-        <v>1.540756926417791E-09</v>
+        <v>1.540746966191024E-09</v>
       </c>
       <c r="S2">
-        <v>2.507006693370757E-09</v>
+        <v>2.507005826707595E-09</v>
       </c>
       <c r="T2">
-        <v>5.630823641704128E-10</v>
+        <v>5.630697388638339E-10</v>
       </c>
       <c r="U2">
-        <v>3.61947216290782E-09</v>
+        <v>3.619468944749497E-09</v>
       </c>
       <c r="V2">
-        <v>-8.22934807714704E-10</v>
+        <v>-8.229412230828581E-10</v>
       </c>
       <c r="W2">
-        <v>-5.63083873314408E-10</v>
+        <v>-5.630699813131503E-10</v>
       </c>
       <c r="X2">
-        <v>-3.619469286922712E-09</v>
+        <v>-3.619463517063579E-09</v>
       </c>
       <c r="Y2">
-        <v>8.229334607923683E-10</v>
+        <v>8.229398761605212E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -13360,37 +13360,37 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7668755422478354</v>
+        <v>0.7668755422478353</v>
       </c>
       <c r="AH2">
         <v>0.5649615026650587</v>
       </c>
       <c r="AI2">
-        <v>0.3790339612538544</v>
+        <v>0.3790339612538548</v>
       </c>
       <c r="AJ2">
-        <v>0.7668755422636042</v>
+        <v>0.7668755422636044</v>
       </c>
       <c r="AK2">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571307</v>
       </c>
       <c r="AL2">
-        <v>0.3790339613129891</v>
+        <v>0.3790339613129897</v>
       </c>
       <c r="AM2">
-        <v>-3.827350193674389</v>
+        <v>-3.827350193674386</v>
       </c>
       <c r="AN2">
-        <v>-155.6209588726732</v>
+        <v>-155.6209588726733</v>
       </c>
       <c r="AO2">
         <v>131.3836767675908</v>
       </c>
       <c r="AP2">
-        <v>-3.827350192423927</v>
+        <v>-3.82735019242391</v>
       </c>
       <c r="AQ2">
-        <v>-155.6209588665842</v>
+        <v>-155.6209588665843</v>
       </c>
       <c r="AR2">
         <v>131.3836767695575</v>
@@ -13437,40 +13437,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.492451665718905E-10</v>
+        <v>6.492412420844224E-10</v>
       </c>
       <c r="O3">
-        <v>5.135874771678282E-10</v>
+        <v>5.135818397559191E-10</v>
       </c>
       <c r="P3">
-        <v>8.356657011254648E-10</v>
+        <v>8.356689888884778E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.492459514635686E-10</v>
+        <v>-6.492376175281382E-10</v>
       </c>
       <c r="R3">
-        <v>-5.135821637853522E-10</v>
+        <v>-5.135828302428651E-10</v>
       </c>
       <c r="S3">
-        <v>-8.356672083797948E-10</v>
+        <v>-8.35667208379796E-10</v>
       </c>
       <c r="T3">
-        <v>-1.877015321308264E-10</v>
+        <v>-1.876921676543456E-10</v>
       </c>
       <c r="U3">
-        <v>-1.206499214331305E-09</v>
+        <v>-1.206490016373329E-09</v>
       </c>
       <c r="V3">
-        <v>2.743075392986018E-10</v>
+        <v>2.743092396880289E-10</v>
       </c>
       <c r="W3">
-        <v>1.877034050295592E-10</v>
+        <v>1.876919251775351E-10</v>
       </c>
       <c r="X3">
-        <v>1.206497214982599E-09</v>
+        <v>1.206495443868553E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.743112603693698E-10</v>
+        <v>-2.7431126036937E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -13491,37 +13491,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7668755422688605</v>
+        <v>0.7668755422688609</v>
       </c>
       <c r="AH3">
-        <v>0.5649615026544883</v>
+        <v>0.564961502654488</v>
       </c>
       <c r="AI3">
-        <v>0.3790339613327004</v>
+        <v>0.379033961332701</v>
       </c>
       <c r="AJ3">
-        <v>0.7668755422636042</v>
+        <v>0.7668755422636044</v>
       </c>
       <c r="AK3">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571307</v>
       </c>
       <c r="AL3">
-        <v>0.3790339613129891</v>
+        <v>0.3790339613129897</v>
       </c>
       <c r="AM3">
-        <v>-3.827350192007103</v>
+        <v>-3.827350192007101</v>
       </c>
       <c r="AN3">
         <v>-155.6209588645546</v>
       </c>
       <c r="AO3">
-        <v>131.3836767702131</v>
+        <v>131.383676770213</v>
       </c>
       <c r="AP3">
-        <v>-3.827350192423927</v>
+        <v>-3.82735019242391</v>
       </c>
       <c r="AQ3">
-        <v>-155.6209588665842</v>
+        <v>-155.6209588665843</v>
       </c>
       <c r="AR3">
         <v>131.3836767695575</v>
@@ -13568,40 +13568,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.49228983661523E-10</v>
+        <v>6.492412420844224E-10</v>
       </c>
       <c r="O4">
-        <v>5.135945616240133E-10</v>
+        <v>5.135818397559191E-10</v>
       </c>
       <c r="P4">
-        <v>8.356741514039077E-10</v>
+        <v>8.356689888884778E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.492298897933249E-10</v>
+        <v>-6.492376175281382E-10</v>
       </c>
       <c r="R4">
-        <v>-5.135963326977213E-10</v>
+        <v>-5.135828302428651E-10</v>
       </c>
       <c r="S4">
-        <v>-8.356762521476907E-10</v>
+        <v>-8.35667208379796E-10</v>
       </c>
       <c r="T4">
-        <v>-1.876713233258411E-10</v>
+        <v>-1.876921676543456E-10</v>
       </c>
       <c r="U4">
-        <v>-1.206501880161363E-09</v>
+        <v>-1.206490016373329E-09</v>
       </c>
       <c r="V4">
-        <v>2.743305394345627E-10</v>
+        <v>2.743092396880289E-10</v>
       </c>
       <c r="W4">
-        <v>1.876713839493393E-10</v>
+        <v>1.876919251775351E-10</v>
       </c>
       <c r="X4">
-        <v>1.206502546642715E-09</v>
+        <v>1.206495443868553E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.743335869369406E-10</v>
+        <v>-2.7431126036937E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13622,25 +13622,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7668755422688605</v>
+        <v>0.7668755422688609</v>
       </c>
       <c r="AH4">
-        <v>0.5649615026544885</v>
+        <v>0.564961502654488</v>
       </c>
       <c r="AI4">
-        <v>0.3790339613327008</v>
+        <v>0.379033961332701</v>
       </c>
       <c r="AJ4">
-        <v>0.7668755422636042</v>
+        <v>0.7668755422636044</v>
       </c>
       <c r="AK4">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571307</v>
       </c>
       <c r="AL4">
-        <v>0.3790339613129891</v>
+        <v>0.3790339613129897</v>
       </c>
       <c r="AM4">
-        <v>-3.827350192007134</v>
+        <v>-3.827350192007101</v>
       </c>
       <c r="AN4">
         <v>-155.6209588645546</v>
@@ -13649,10 +13649,10 @@
         <v>131.383676770213</v>
       </c>
       <c r="AP4">
-        <v>-3.827350192423927</v>
+        <v>-3.82735019242391</v>
       </c>
       <c r="AQ4">
-        <v>-155.6209588665842</v>
+        <v>-155.6209588665843</v>
       </c>
       <c r="AR4">
         <v>131.3836767695575</v>
@@ -14968,40 +14968,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.605323420844211E-14</v>
+        <v>-2.60532342084421E-14</v>
       </c>
       <c r="O2">
-        <v>1.302657324430829E-14</v>
+        <v>2.344786692404027E-14</v>
       </c>
       <c r="P2">
-        <v>5.210602310044589E-15</v>
+        <v>-4.453220119842416E-20</v>
       </c>
       <c r="Q2">
-        <v>1.563194052506538E-14</v>
+        <v>1.563194052506531E-14</v>
       </c>
       <c r="R2">
-        <v>-1.04208215775057E-14</v>
+        <v>-2.084211525773401E-14</v>
       </c>
       <c r="S2">
-        <v>-1.042082090133837E-14</v>
+        <v>4.727798899087527E-19</v>
       </c>
       <c r="T2">
-        <v>2.084258736675318E-14</v>
+        <v>2.084258736675319E-14</v>
       </c>
       <c r="U2">
-        <v>5.763394861896599E-09</v>
+        <v>5.763379229956085E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763402682029843E-09</v>
+        <v>-5.763381839442465E-09</v>
       </c>
       <c r="W2">
-        <v>-2.08425873667533E-14</v>
+        <v>-1.563194052506493E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763400072057539E-09</v>
+        <v>-5.763381834793607E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763402682515742E-09</v>
+        <v>5.763376629281515E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -15025,22 +15025,22 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG2">
-        <v>0.550000011705746</v>
+        <v>0.5500000117057465</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030185</v>
+        <v>0.5500000121030181</v>
       </c>
       <c r="AI2">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593766</v>
+        <v>0.5500000116593771</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493877</v>
+        <v>0.550000012149387</v>
       </c>
       <c r="AL2">
-        <v>6.835683379550131E-13</v>
+        <v>6.611530952576334E-13</v>
       </c>
       <c r="AM2">
         <v>-179.9999999995567</v>
@@ -15049,7 +15049,7 @@
         <v>179.99999999955</v>
       </c>
       <c r="AO2">
-        <v>7.06355645745588E-13</v>
+        <v>6.76699317774843E-13</v>
       </c>
       <c r="AP2">
         <v>-179.9999999952994</v>
@@ -15099,40 +15099,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.563194052506458E-14</v>
+        <v>1.24640581913235E-28</v>
       </c>
       <c r="O3">
-        <v>1.302682204731261E-14</v>
+        <v>2.605528370926497E-15</v>
       </c>
       <c r="P3">
-        <v>1.563214570858114E-14</v>
+        <v>2.051790644571189E-19</v>
       </c>
       <c r="Q3">
-        <v>5.210646841687731E-15</v>
+        <v>-1.042129368337681E-14</v>
       </c>
       <c r="R3">
-        <v>-1.573656534921777E-19</v>
+        <v>-1.573680010196953E-19</v>
       </c>
       <c r="S3">
-        <v>-3.126403865961736E-14</v>
+        <v>-1.575952913492347E-19</v>
       </c>
       <c r="T3">
-        <v>-4.168517473350715E-14</v>
+        <v>-1.042129368337674E-14</v>
       </c>
       <c r="U3">
-        <v>-1.921131620416245E-09</v>
+        <v>-1.921147252356764E-09</v>
       </c>
       <c r="V3">
-        <v>1.92111338497186E-09</v>
+        <v>1.921144648852923E-09</v>
       </c>
       <c r="W3">
-        <v>5.21064684168838E-14</v>
+        <v>5.21064684168825E-15</v>
       </c>
       <c r="X3">
-        <v>1.921115988529715E-09</v>
+        <v>1.921144647087333E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921134227505244E-09</v>
+        <v>-1.921149859445777E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15153,25 +15153,25 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023808765</v>
+        <v>1.100000023808766</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439208</v>
+        <v>0.5500000116439209</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648446</v>
+        <v>0.5500000121648436</v>
       </c>
       <c r="AI3">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593766</v>
+        <v>0.5500000116593771</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493877</v>
+        <v>0.550000012149387</v>
       </c>
       <c r="AL3">
-        <v>7.194758010685721E-13</v>
+        <v>6.852680210974273E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999938803</v>
@@ -15180,7 +15180,7 @@
         <v>179.9999999938735</v>
       </c>
       <c r="AO3">
-        <v>7.06355645745588E-13</v>
+        <v>6.76699317774843E-13</v>
       </c>
       <c r="AP3">
         <v>-179.9999999952994</v>
@@ -15230,40 +15230,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-5.210646841687913E-15</v>
+        <v>1.24640581913235E-28</v>
       </c>
       <c r="O4">
-        <v>2.605528368871056E-15</v>
+        <v>2.605528370926497E-15</v>
       </c>
       <c r="P4">
-        <v>3.647473308631799E-14</v>
+        <v>2.051790644571189E-19</v>
       </c>
       <c r="Q4">
-        <v>-5.210646841688824E-15</v>
+        <v>-1.042129368337681E-14</v>
       </c>
       <c r="R4">
-        <v>1.042113631137363E-14</v>
+        <v>-1.573680010196953E-19</v>
       </c>
       <c r="S4">
-        <v>-4.168533234763641E-14</v>
+        <v>-1.575952913492347E-19</v>
       </c>
       <c r="T4">
-        <v>-3.647452789181866E-14</v>
+        <v>-1.042129368337674E-14</v>
       </c>
       <c r="U4">
-        <v>-1.921131620416245E-09</v>
+        <v>-1.921147252356764E-09</v>
       </c>
       <c r="V4">
-        <v>1.921123806265546E-09</v>
+        <v>1.921144648852923E-09</v>
       </c>
       <c r="W4">
-        <v>3.647452789181855E-14</v>
+        <v>5.21064684168825E-15</v>
       </c>
       <c r="X4">
-        <v>1.921136831117073E-09</v>
+        <v>1.921144647087333E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921134227505244E-09</v>
+        <v>-1.921149859445777E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15284,25 +15284,25 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023808765</v>
+        <v>1.100000023808766</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439206</v>
+        <v>0.5500000116439209</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648447</v>
+        <v>0.5500000121648436</v>
       </c>
       <c r="AI4">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593766</v>
+        <v>0.5500000116593771</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493877</v>
+        <v>0.550000012149387</v>
       </c>
       <c r="AL4">
-        <v>7.194740614528267E-13</v>
+        <v>6.852680210974273E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999938803</v>
@@ -15311,7 +15311,7 @@
         <v>179.9999999938735</v>
       </c>
       <c r="AO4">
-        <v>7.06355645745588E-13</v>
+        <v>6.76699317774843E-13</v>
       </c>
       <c r="AP4">
         <v>-179.9999999952994</v>
